--- a/VerveStacks_DEU/SuppXLS/scen_tsparameters_s2_w.xlsx
+++ b/VerveStacks_DEU/SuppXLS/scen_tsparameters_s2_w.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81BB47DF-3AE7-4DC1-85B0-8233454A318A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{438680A4-08AA-412C-BBEC-089BBED6B89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2514,10 +2514,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S2b0212h09,S2b0213h09,S2b0213h17,S2b0214h12,S2b0214h14,S2b0214h16,S2b0216h09,S5c1112h11,S5c1113h10,S5c1113h18,S5c1115h11,S5c1115h15,S2aH6,S2b0213h16,S2b0216h14,S2b0217h15,S3aH5,S5aH3,S5c1113h09,S5c1113h11,S5c1113h17,S5c1114h17,S5c1116h08,S5c1116h15,S5c1116h18,S5c1117h18,S5c1118h13,S2b0213h15,S2b0214h10,S2b0214h17,S2b0215h11,S2b0217h10,S2b0218h15,S5c1112h13,S5c1112h17,S5c1115h07,S5c1115h09,S5c1115h12,S2b0212h10,S2b0213h07,S2b0213h18,S2b0214h15,S2b0216h08,S2b0217h11,S2b0217h18,S2b0218h14,S4aH5,S5c1113h08,S5c1113h14,S5c1114h08,S5c1116h11,S5c1116h14,S5c1117h12,S2b0215h14,S2b0216h07,S2b0216h10,S2b0216h12,S2b0217h08,S2b0218h07,S3aH4,S4aH3,S4aH4,S5c1112h14,S5c1114h18,S5c1115h13,S5c1115h18,S5c1118h16,S2b0212h14,S2b0213h14,S2b0215h15,S2b0217h13,S2b0217h14,S5c1116h12,S5c1117h07,S5c1117h09,S5c1117h10,S5c1117h11,S1aH2,S2aH3,S2b0214h13,S2b0215h07,S2b0215h10,S2b0216h11,S2b0216h18,S3aH6,S5aH6,S5c1112h09,S5c1113h16,S5c1115h14,S5c1116h17,S5c1117h16,S5c1117h17,S6aH6,S2b0212h13,S2b0213h11,S2b0214h09,S2b0216h16,S2b0217h12,S2b0218h09,S2b0218h10,S5c1112h10,S5c1114h09,S5c1114h11,S5c1117h14,S5c1118h17,S1aH6,S2b0212h11,S2b0215h13,S5c1113h07,S5c1114h14,S5c1115h10,S5c1116h07,S5c1113h13,S5c1114h12,S5c1116h09,S5c1116h10,S5c1118h11,S6aH5,S1aH5,S2aH4,S2aH5,S2b0213h10,S2b0215h12,S2b0216h15,S2b0217h07,S5aH2,S5aH5,S5c1112h12,S5c1114h13,S5c1116h16,S5c1118h10,S6aH2,S2b0212h17,S2b0212h18,S2b0214h07,S2b0214h18,S2b0215h08,S2b0215h09,S2b0215h16,S2b0215h17,S2b0217h09,S2b0218h18,S3aH3,S5c1112h07,S5c1112h16,S5c1112h18,S5c1114h10,S5c1115h17,S5c1116h13,S5c1118h12,S2b0212h08,S2b0214h08,S2b0217h17,S4aH2,S5c1112h08,S5c1112h15,S5c1114h07,S5c1117h08,S5c1118h08,S5c1118h15,S5c1118h18,S2b0212h15,S2b0213h08,S2b0213h13,S2b0218h08,S2b0218h13,S2b0218h17,S5aH4,S5c1114h15,S5c1115h08,S5c1115h16,S5c1117h15,S5c1118h07,S5c1118h14,S6aH3,S6aH4,S1aH4,S2aH2,S2b0212h12,S2b0212h16,S2b0214h11,S2b0215h18,S2b0216h13,S4aH6,S5c1113h15,S5c1117h13,S5c1118h09,S2b0212h07,S2b0213h12,S2b0216h17,S2b0217h16,S2b0218h11,S2b0218h12,S2b0218h16,S3aH2,S5c1113h12,S5c1114h16</t>
-  </si>
-  <si>
-    <t>S1aH7,S2b0215h22,S2b0218h03,S4aH7,S5aH7,S5c1112h06,S5c1113h22,S5c1114h19,S5c1115h23,S1aH8,S2b0212h22,S2b0213h03,S2b0213h06,S2b0213h19,S2b0213h20,S2b0215h19,S2b0215h24,S2b0217h04,S2b0217h22,S2b0217h23,S5aH1,S5c1115h03,S5c1115h05,S5c1117h05,S6aH7,S2aH8,S2b0212h05,S2b0213h21,S2b0213h23,S2b0214h01,S2b0214h24,S2b0215h01,S2b0215h04,S2b0216h19,S2b0216h23,S5c1115h19,S5c1115h24,S5c1116h03,S5c1118h06,S5c1118h22,S2b0214h22,S2b0214h23,S2b0218h21,S5c1112h04,S5c1112h19,S5c1112h20,S5c1113h01,S5c1113h03,S5c1116h04,S5c1117h02,S2b0213h05,S2b0215h06,S2b0216h03,S2b0216h22,S2b0217h06,S5c1114h02,S5c1114h24,S5c1115h20,S5c1116h22,S5c1118h20,S2b0212h02,S2b0214h06,S2b0216h01,S3aH1,S5c1112h03,S5c1113h02,S5c1113h21,S5c1115h04,S5c1115h21,S5c1118h19,S5c1118h21,S5c1118h23,S2b0213h04,S2b0213h22,S2b0215h02,S2b0216h02,S2b0217h01,S2b0217h20,S5c1113h20,S1aH1,S2aH7,S2b0212h03,S2b0212h20,S2b0212h24,S2b0214h05,S2b0214h21,S2b0216h24,S2b0218h06,S2b0218h24,S5c1115h01,S5c1116h21,S5c1117h23,S5c1118h01,S5c1118h04,S5c1112h01,S5c1112h02,S5c1112h22,S5c1112h24,S5c1113h04,S5c1113h24,S5c1114h20,S5c1116h06,S5c1116h19,S5c1118h05,S6aH8,S2b0212h23,S2b0215h03,S2b0217h21,S2b0218h02,S2b0218h19,S2b0218h22,S4aH8,S5c1114h01,S5c1114h06,S5c1116h23,S5c1117h06,S5c1117h21,S5c1118h03,S2b0214h19,S2b0217h02,S2b0217h05,S2b0217h24,S5c1112h23,S5c1116h24,S5c1117h01,S5c1117h19,S2b0213h01,S2b0213h02,S2b0214h04,S2b0215h20,S2b0215h21,S2b0218h04,S5c1112h21,S5c1113h19,S5c1113h23,S5c1114h03,S5c1114h05,S5c1115h22,S5c1116h01,S5c1116h20,S2aH1,S2b0212h04,S2b0212h19,S2b0214h20,S2b0215h23,S2b0217h03,S3aH7,S5aH8,S5c1114h23,S5c1117h04,S5c1117h20,S5c1117h22,S5c1117h24,S5c1118h02,S2b0212h06,S2b0212h21,S2b0216h05,S2b0218h05,S2b0218h23,S5c1113h05,S5c1114h21,S5c1114h22,S5c1116h02,S5c1118h24,S2b0212h01,S2b0213h24,S2b0214h02,S2b0214h03,S2b0216h04,S2b0216h06,S2b0216h20,S2b0217h19,S2b0218h01,S2b0218h20,S4aH1,S5c1114h04,S5c1115h06,S5c1116h05,S5c1117h03,S6aH1,S2b0215h05,S2b0216h21,S3aH8,S5c1112h05,S5c1113h06,S5c1115h02</t>
+    <t>S2b0213h15,S2b0214h10,S2b0214h17,S2b0215h11,S2b0217h10,S2b0218h15,S5c1112h13,S5c1112h17,S5c1115h07,S5c1115h09,S5c1115h12,S5c1113h13,S5c1114h12,S5c1116h09,S5c1116h10,S5c1118h11,S6aH5,S2b0215h14,S2b0216h07,S2b0216h10,S2b0216h12,S2b0217h08,S2b0218h07,S3aH4,S4aH3,S4aH4,S5c1112h14,S5c1114h18,S5c1115h13,S5c1115h18,S5c1118h16,S2b0212h08,S2b0214h08,S2b0217h17,S4aH2,S5c1112h08,S5c1112h15,S5c1114h07,S5c1117h08,S5c1118h08,S5c1118h15,S5c1118h18,S1aH5,S2aH4,S2aH5,S2b0213h10,S2b0215h12,S2b0216h15,S2b0217h07,S5aH2,S5aH5,S5c1112h12,S5c1114h13,S5c1116h16,S5c1118h10,S6aH2,S1aH2,S2aH3,S2b0214h13,S2b0215h07,S2b0215h10,S2b0216h11,S2b0216h18,S3aH6,S5aH6,S5c1112h09,S5c1113h16,S5c1115h14,S5c1116h17,S5c1117h16,S5c1117h17,S6aH6,S1aH6,S2b0212h11,S2b0215h13,S5c1113h07,S5c1114h14,S5c1115h10,S5c1116h07,S2b0212h07,S2b0213h12,S2b0216h17,S2b0217h16,S2b0218h11,S2b0218h12,S2b0218h16,S3aH2,S5c1113h12,S5c1114h16,S2b0212h15,S2b0213h08,S2b0213h13,S2b0218h08,S2b0218h13,S2b0218h17,S5aH4,S5c1114h15,S5c1115h08,S5c1115h16,S5c1117h15,S5c1118h07,S5c1118h14,S6aH3,S6aH4,S2b0212h14,S2b0213h14,S2b0215h15,S2b0217h13,S2b0217h14,S5c1116h12,S5c1117h07,S5c1117h09,S5c1117h10,S5c1117h11,S1aH4,S2aH2,S2b0212h12,S2b0212h16,S2b0214h11,S2b0215h18,S2b0216h13,S4aH6,S5c1113h15,S5c1117h13,S5c1118h09,S2b0212h13,S2b0213h11,S2b0214h09,S2b0216h16,S2b0217h12,S2b0218h09,S2b0218h10,S5c1112h10,S5c1114h09,S5c1114h11,S5c1117h14,S5c1118h17,S1aH3,S2b0212h09,S2b0213h09,S2b0213h17,S2b0214h12,S2b0214h14,S2b0214h16,S2b0216h09,S5c1112h11,S5c1113h10,S5c1113h18,S5c1115h11,S5c1115h15,S2b0212h10,S2b0213h07,S2b0213h18,S2b0214h15,S2b0216h08,S2b0217h11,S2b0217h18,S2b0218h14,S4aH5,S5c1113h08,S5c1113h14,S5c1114h08,S5c1116h11,S5c1116h14,S5c1117h12,S2b0212h17,S2b0212h18,S2b0214h07,S2b0214h18,S2b0215h08,S2b0215h09,S2b0215h16,S2b0215h17,S2b0217h09,S2b0218h18,S3aH3,S5c1112h07,S5c1112h16,S5c1112h18,S5c1114h10,S5c1115h17,S5c1116h13,S5c1118h12,S2aH6,S2b0213h16,S2b0216h14,S2b0217h15,S3aH5,S5aH3,S5c1113h09,S5c1113h11,S5c1113h17,S5c1114h17,S5c1116h08,S5c1116h15,S5c1116h18,S5c1117h18,S5c1118h13</t>
+  </si>
+  <si>
+    <t>S2aH8,S2b0212h05,S2b0213h21,S2b0213h23,S2b0214h01,S2b0214h24,S2b0215h01,S2b0215h04,S2b0216h19,S2b0216h23,S5c1115h19,S5c1115h24,S5c1116h03,S5c1118h06,S5c1118h22,S2b0212h23,S2b0215h03,S2b0217h21,S2b0218h02,S2b0218h19,S2b0218h22,S4aH8,S5c1114h01,S5c1114h06,S5c1116h23,S5c1117h06,S5c1117h21,S5c1118h03,S2b0213h05,S2b0215h06,S2b0216h03,S2b0216h22,S2b0217h06,S5c1114h02,S5c1114h24,S5c1115h20,S5c1116h22,S5c1118h20,S2aH1,S2b0212h04,S2b0212h19,S2b0214h20,S2b0215h23,S2b0217h03,S3aH7,S5aH8,S5c1114h23,S5c1117h04,S5c1117h20,S5c1117h22,S5c1117h24,S5c1118h02,S2b0214h19,S2b0217h02,S2b0217h05,S2b0217h24,S5c1112h23,S5c1116h24,S5c1117h01,S5c1117h19,S2b0213h04,S2b0213h22,S2b0215h02,S2b0216h02,S2b0217h01,S2b0217h20,S5c1113h20,S5c1112h01,S5c1112h02,S5c1112h22,S5c1112h24,S5c1113h04,S5c1113h24,S5c1114h20,S5c1116h06,S5c1116h19,S5c1118h05,S6aH8,S2b0215h05,S2b0216h21,S3aH8,S5c1112h05,S5c1113h06,S5c1115h02,S2b0212h06,S2b0212h21,S2b0216h05,S2b0218h05,S2b0218h23,S5c1113h05,S5c1114h21,S5c1114h22,S5c1116h02,S5c1118h24,S2b0212h02,S2b0214h06,S2b0216h01,S3aH1,S5c1112h03,S5c1113h02,S5c1113h21,S5c1115h04,S5c1115h21,S5c1118h19,S5c1118h21,S5c1118h23,S2b0212h01,S2b0213h24,S2b0214h02,S2b0214h03,S2b0216h04,S2b0216h06,S2b0216h20,S2b0217h19,S2b0218h01,S2b0218h20,S4aH1,S5c1114h04,S5c1115h06,S5c1116h05,S5c1117h03,S6aH1,S1aH1,S2aH7,S2b0212h03,S2b0212h20,S2b0212h24,S2b0214h05,S2b0214h21,S2b0216h24,S2b0218h06,S2b0218h24,S5c1115h01,S5c1116h21,S5c1117h23,S5c1118h01,S5c1118h04,S1aH7,S2b0215h22,S2b0218h03,S4aH7,S5aH7,S5c1112h06,S5c1113h22,S5c1114h19,S5c1115h23,S2b0214h22,S2b0214h23,S2b0218h21,S5c1112h04,S5c1112h19,S5c1112h20,S5c1113h01,S5c1113h03,S5c1116h04,S5c1117h02,S2b0213h01,S2b0213h02,S2b0214h04,S2b0215h20,S2b0215h21,S2b0218h04,S5c1112h21,S5c1113h19,S5c1113h23,S5c1114h03,S5c1114h05,S5c1115h22,S5c1116h01,S5c1116h20,S1aH8,S2b0212h22,S2b0213h03,S2b0213h06,S2b0213h19,S2b0213h20,S2b0215h19,S2b0215h24,S2b0217h04,S2b0217h22,S2b0217h23,S5aH1,S5c1115h03,S5c1115h05,S5c1117h05,S6aH7</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -2545,10 +2545,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -2756,7 +2755,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2778,16 +2777,14 @@
     <xf numFmtId="164" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
@@ -2832,7 +2829,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1F8F160-06DE-C197-93E9-D4C65AED400A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0578B213-7B4C-9686-4CFB-35686C95E5A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3240,7 +3237,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH7,S2b0215h22,S2b0218h03,S4aH7,S5aH7,S5c1112h06,S5c1113h22,S5c1114h19,S5c1115h23,S1aH8,S2b0212h22,S2b0213h03,S2b0213h06,S2b0213h19,S2b0213h20,S2b0215h19,S2b0215h24,S2b0217h04,S2b0217h22,S2b0217h23,S5aH1,S5c1115h03,S5c1115h05,S5c1117h05,S6aH7,S2aH8,S2b0212h05,S2b0213h21,S2b0213h23,S2b0214h01,S2b0214h24,S2b0215h01,S2b0215h04,S2b0216h19,S2b0216h23,S5c1115h19,S5c1115h24,S5c1116h03,S5c1118h06,S5c1118h22,S2b0214h22,S2b0214h23,S2b0218h21,S5c1112h04,S5c1112h19,S5c1112h20,S5c1113h01,S5c1113h03,S5c1116h04,S5c1117h02,S2b0213h05,S2b0215h06,S2b0216h03,S2b0216h22,S2b0217h06,S5c1114h02,S5c1114h24,S5c1115h20,S5c1116h22,S5c1118h20,S2b0212h02,S2b0214h06,S2b0216h01,S3aH1,S5c1112h03,S5c1113h02,S5c1113h21,S5c1115h04,S5c1115h21,S5c1118h19,S5c1118h21,S5c1118h23,S2b0213h04,S2b0213h22,S2b0215h02,S2b0216h02,S2b0217h01,S2b0217h20,S5c1113h20,S1aH1,S2aH7,S2b0212h03,S2b0212h20,S2b0212h24,S2b0214h05,S2b0214h21,S2b0216h24,S2b0218h06,S2b0218h24,S5c1115h01,S5c1116h21,S5c1117h23,S5c1118h01,S5c1118h04,S5c1112h01,S5c1112h02,S5c1112h22,S5c1112h24,S5c1113h04,S5c1113h24,S5c1114h20,S5c1116h06,S5c1116h19,S5c1118h05,S6aH8,S2b0212h23,S2b0215h03,S2b0217h21,S2b0218h02,S2b0218h19,S2b0218h22,S4aH8,S5c1114h01,S5c1114h06,S5c1116h23,S5c1117h06,S5c1117h21,S5c1118h03,S2b0214h19,S2b0217h02,S2b0217h05,S2b0217h24,S5c1112h23,S5c1116h24,S5c1117h01,S5c1117h19,S2b0213h01,S2b0213h02,S2b0214h04,S2b0215h20,S2b0215h21,S2b0218h04,S5c1112h21,S5c1113h19,S5c1113h23,S5c1114h03,S5c1114h05,S5c1115h22,S5c1116h01,S5c1116h20,S2aH1,S2b0212h04,S2b0212h19,S2b0214h20,S2b0215h23,S2b0217h03,S3aH7,S5aH8,S5c1114h23,S5c1117h04,S5c1117h20,S5c1117h22,S5c1117h24,S5c1118h02,S2b0212h06,S2b0212h21,S2b0216h05,S2b0218h05,S2b0218h23,S5c1113h05,S5c1114h21,S5c1114h22,S5c1116h02,S5c1118h24,S2b0212h01,S2b0213h24,S2b0214h02,S2b0214h03,S2b0216h04,S2b0216h06,S2b0216h20,S2b0217h19,S2b0218h01,S2b0218h20,S4aH1,S5c1114h04,S5c1115h06,S5c1116h05,S5c1117h03,S6aH1,S2b0215h05,S2b0216h21,S3aH8,S5c1112h05,S5c1113h06,S5c1115h02</v>
+        <v>S2aH8,S2b0212h05,S2b0213h21,S2b0213h23,S2b0214h01,S2b0214h24,S2b0215h01,S2b0215h04,S2b0216h19,S2b0216h23,S5c1115h19,S5c1115h24,S5c1116h03,S5c1118h06,S5c1118h22,S2b0212h23,S2b0215h03,S2b0217h21,S2b0218h02,S2b0218h19,S2b0218h22,S4aH8,S5c1114h01,S5c1114h06,S5c1116h23,S5c1117h06,S5c1117h21,S5c1118h03,S2b0213h05,S2b0215h06,S2b0216h03,S2b0216h22,S2b0217h06,S5c1114h02,S5c1114h24,S5c1115h20,S5c1116h22,S5c1118h20,S2aH1,S2b0212h04,S2b0212h19,S2b0214h20,S2b0215h23,S2b0217h03,S3aH7,S5aH8,S5c1114h23,S5c1117h04,S5c1117h20,S5c1117h22,S5c1117h24,S5c1118h02,S2b0214h19,S2b0217h02,S2b0217h05,S2b0217h24,S5c1112h23,S5c1116h24,S5c1117h01,S5c1117h19,S2b0213h04,S2b0213h22,S2b0215h02,S2b0216h02,S2b0217h01,S2b0217h20,S5c1113h20,S5c1112h01,S5c1112h02,S5c1112h22,S5c1112h24,S5c1113h04,S5c1113h24,S5c1114h20,S5c1116h06,S5c1116h19,S5c1118h05,S6aH8,S2b0215h05,S2b0216h21,S3aH8,S5c1112h05,S5c1113h06,S5c1115h02,S2b0212h06,S2b0212h21,S2b0216h05,S2b0218h05,S2b0218h23,S5c1113h05,S5c1114h21,S5c1114h22,S5c1116h02,S5c1118h24,S2b0212h02,S2b0214h06,S2b0216h01,S3aH1,S5c1112h03,S5c1113h02,S5c1113h21,S5c1115h04,S5c1115h21,S5c1118h19,S5c1118h21,S5c1118h23,S2b0212h01,S2b0213h24,S2b0214h02,S2b0214h03,S2b0216h04,S2b0216h06,S2b0216h20,S2b0217h19,S2b0218h01,S2b0218h20,S4aH1,S5c1114h04,S5c1115h06,S5c1116h05,S5c1117h03,S6aH1,S1aH1,S2aH7,S2b0212h03,S2b0212h20,S2b0212h24,S2b0214h05,S2b0214h21,S2b0216h24,S2b0218h06,S2b0218h24,S5c1115h01,S5c1116h21,S5c1117h23,S5c1118h01,S5c1118h04,S1aH7,S2b0215h22,S2b0218h03,S4aH7,S5aH7,S5c1112h06,S5c1113h22,S5c1114h19,S5c1115h23,S2b0214h22,S2b0214h23,S2b0218h21,S5c1112h04,S5c1112h19,S5c1112h20,S5c1113h01,S5c1113h03,S5c1116h04,S5c1117h02,S2b0213h01,S2b0213h02,S2b0214h04,S2b0215h20,S2b0215h21,S2b0218h04,S5c1112h21,S5c1113h19,S5c1113h23,S5c1114h03,S5c1114h05,S5c1115h22,S5c1116h01,S5c1116h20,S1aH8,S2b0212h22,S2b0213h03,S2b0213h06,S2b0213h19,S2b0213h20,S2b0215h19,S2b0215h24,S2b0217h04,S2b0217h22,S2b0217h23,S5aH1,S5c1115h03,S5c1115h05,S5c1117h05,S6aH7</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3272,7 +3269,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S2b0212h09,S2b0213h09,S2b0213h17,S2b0214h12,S2b0214h14,S2b0214h16,S2b0216h09,S5c1112h11,S5c1113h10,S5c1113h18,S5c1115h11,S5c1115h15,S2aH6,S2b0213h16,S2b0216h14,S2b0217h15,S3aH5,S5aH3,S5c1113h09,S5c1113h11,S5c1113h17,S5c1114h17,S5c1116h08,S5c1116h15,S5c1116h18,S5c1117h18,S5c1118h13,S2b0213h15,S2b0214h10,S2b0214h17,S2b0215h11,S2b0217h10,S2b0218h15,S5c1112h13,S5c1112h17,S5c1115h07,S5c1115h09,S5c1115h12,S2b0212h10,S2b0213h07,S2b0213h18,S2b0214h15,S2b0216h08,S2b0217h11,S2b0217h18,S2b0218h14,S4aH5,S5c1113h08,S5c1113h14,S5c1114h08,S5c1116h11,S5c1116h14,S5c1117h12,S2b0215h14,S2b0216h07,S2b0216h10,S2b0216h12,S2b0217h08,S2b0218h07,S3aH4,S4aH3,S4aH4,S5c1112h14,S5c1114h18,S5c1115h13,S5c1115h18,S5c1118h16,S2b0212h14,S2b0213h14,S2b0215h15,S2b0217h13,S2b0217h14,S5c1116h12,S5c1117h07,S5c1117h09,S5c1117h10,S5c1117h11,S1aH2,S2aH3,S2b0214h13,S2b0215h07,S2b0215h10,S2b0216h11,S2b0216h18,S3aH6,S5aH6,S5c1112h09,S5c1113h16,S5c1115h14,S5c1116h17,S5c1117h16,S5c1117h17,S6aH6,S2b0212h13,S2b0213h11,S2b0214h09,S2b0216h16,S2b0217h12,S2b0218h09,S2b0218h10,S5c1112h10,S5c1114h09,S5c1114h11,S5c1117h14,S5c1118h17,S1aH6,S2b0212h11,S2b0215h13,S5c1113h07,S5c1114h14,S5c1115h10,S5c1116h07,S5c1113h13,S5c1114h12,S5c1116h09,S5c1116h10,S5c1118h11,S6aH5,S1aH5,S2aH4,S2aH5,S2b0213h10,S2b0215h12,S2b0216h15,S2b0217h07,S5aH2,S5aH5,S5c1112h12,S5c1114h13,S5c1116h16,S5c1118h10,S6aH2,S2b0212h17,S2b0212h18,S2b0214h07,S2b0214h18,S2b0215h08,S2b0215h09,S2b0215h16,S2b0215h17,S2b0217h09,S2b0218h18,S3aH3,S5c1112h07,S5c1112h16,S5c1112h18,S5c1114h10,S5c1115h17,S5c1116h13,S5c1118h12,S2b0212h08,S2b0214h08,S2b0217h17,S4aH2,S5c1112h08,S5c1112h15,S5c1114h07,S5c1117h08,S5c1118h08,S5c1118h15,S5c1118h18,S2b0212h15,S2b0213h08,S2b0213h13,S2b0218h08,S2b0218h13,S2b0218h17,S5aH4,S5c1114h15,S5c1115h08,S5c1115h16,S5c1117h15,S5c1118h07,S5c1118h14,S6aH3,S6aH4,S1aH4,S2aH2,S2b0212h12,S2b0212h16,S2b0214h11,S2b0215h18,S2b0216h13,S4aH6,S5c1113h15,S5c1117h13,S5c1118h09,S2b0212h07,S2b0213h12,S2b0216h17,S2b0217h16,S2b0218h11,S2b0218h12,S2b0218h16,S3aH2,S5c1113h12,S5c1114h16</v>
+        <v>S2b0213h15,S2b0214h10,S2b0214h17,S2b0215h11,S2b0217h10,S2b0218h15,S5c1112h13,S5c1112h17,S5c1115h07,S5c1115h09,S5c1115h12,S5c1113h13,S5c1114h12,S5c1116h09,S5c1116h10,S5c1118h11,S6aH5,S2b0215h14,S2b0216h07,S2b0216h10,S2b0216h12,S2b0217h08,S2b0218h07,S3aH4,S4aH3,S4aH4,S5c1112h14,S5c1114h18,S5c1115h13,S5c1115h18,S5c1118h16,S2b0212h08,S2b0214h08,S2b0217h17,S4aH2,S5c1112h08,S5c1112h15,S5c1114h07,S5c1117h08,S5c1118h08,S5c1118h15,S5c1118h18,S1aH5,S2aH4,S2aH5,S2b0213h10,S2b0215h12,S2b0216h15,S2b0217h07,S5aH2,S5aH5,S5c1112h12,S5c1114h13,S5c1116h16,S5c1118h10,S6aH2,S1aH2,S2aH3,S2b0214h13,S2b0215h07,S2b0215h10,S2b0216h11,S2b0216h18,S3aH6,S5aH6,S5c1112h09,S5c1113h16,S5c1115h14,S5c1116h17,S5c1117h16,S5c1117h17,S6aH6,S1aH6,S2b0212h11,S2b0215h13,S5c1113h07,S5c1114h14,S5c1115h10,S5c1116h07,S2b0212h07,S2b0213h12,S2b0216h17,S2b0217h16,S2b0218h11,S2b0218h12,S2b0218h16,S3aH2,S5c1113h12,S5c1114h16,S2b0212h15,S2b0213h08,S2b0213h13,S2b0218h08,S2b0218h13,S2b0218h17,S5aH4,S5c1114h15,S5c1115h08,S5c1115h16,S5c1117h15,S5c1118h07,S5c1118h14,S6aH3,S6aH4,S2b0212h14,S2b0213h14,S2b0215h15,S2b0217h13,S2b0217h14,S5c1116h12,S5c1117h07,S5c1117h09,S5c1117h10,S5c1117h11,S1aH4,S2aH2,S2b0212h12,S2b0212h16,S2b0214h11,S2b0215h18,S2b0216h13,S4aH6,S5c1113h15,S5c1117h13,S5c1118h09,S2b0212h13,S2b0213h11,S2b0214h09,S2b0216h16,S2b0217h12,S2b0218h09,S2b0218h10,S5c1112h10,S5c1114h09,S5c1114h11,S5c1117h14,S5c1118h17,S1aH3,S2b0212h09,S2b0213h09,S2b0213h17,S2b0214h12,S2b0214h14,S2b0214h16,S2b0216h09,S5c1112h11,S5c1113h10,S5c1113h18,S5c1115h11,S5c1115h15,S2b0212h10,S2b0213h07,S2b0213h18,S2b0214h15,S2b0216h08,S2b0217h11,S2b0217h18,S2b0218h14,S4aH5,S5c1113h08,S5c1113h14,S5c1114h08,S5c1116h11,S5c1116h14,S5c1117h12,S2b0212h17,S2b0212h18,S2b0214h07,S2b0214h18,S2b0215h08,S2b0215h09,S2b0215h16,S2b0215h17,S2b0217h09,S2b0218h18,S3aH3,S5c1112h07,S5c1112h16,S5c1112h18,S5c1114h10,S5c1115h17,S5c1116h13,S5c1118h12,S2aH6,S2b0213h16,S2b0216h14,S2b0217h15,S3aH5,S5aH3,S5c1113h09,S5c1113h11,S5c1113h17,S5c1114h17,S5c1116h08,S5c1116h15,S5c1116h18,S5c1117h18,S5c1118h13</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3885,7 +3882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92811BC3-B3EF-49B1-B802-9BFEC91255F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEA6281-AEF5-4016-86CA-FB4EF4E06C88}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6708,7 +6705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2350C355-4FC3-464A-A0D7-0BE92590F44D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81A0447-76D6-42CD-AF40-D3BCECF57748}">
   <dimension ref="A1:S394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6727,16 +6724,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>818</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="9" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="11" t="s">
@@ -6789,13 +6786,13 @@
       <c r="O10" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="Q10" s="20" t="s">
+      <c r="Q10" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="R10" s="20" t="s">
+      <c r="R10" s="18" t="s">
         <v>830</v>
       </c>
-      <c r="S10" s="20" t="s">
+      <c r="S10" s="18" t="s">
         <v>831</v>
       </c>
     </row>
@@ -6827,8 +6824,8 @@
       <c r="L11" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="M11" s="17">
-        <v>127.34440943455283</v>
+      <c r="M11" s="14">
+        <v>2.7667697639289526E-2</v>
       </c>
       <c r="N11" s="13" t="s">
         <v>433</v>
@@ -6836,13 +6833,13 @@
       <c r="O11" s="13" t="s">
         <v>820</v>
       </c>
-      <c r="Q11" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="R11" s="22">
-        <v>0.34475697926011922</v>
-      </c>
-      <c r="S11" s="21" t="s">
+      <c r="Q11" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="R11" s="20">
+        <v>0.16560240645944377</v>
+      </c>
+      <c r="S11" s="19" t="s">
         <v>832</v>
       </c>
     </row>
@@ -6874,8 +6871,8 @@
       <c r="L12" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="M12" s="18">
-        <v>17.936718851933588</v>
+      <c r="M12" s="16">
+        <v>3.7762969838562965E-3</v>
       </c>
       <c r="N12" s="15" t="s">
         <v>433</v>
@@ -6883,13 +6880,13 @@
       <c r="O12" s="15" t="s">
         <v>820</v>
       </c>
-      <c r="Q12" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="R12" s="24">
-        <v>0.19055359121853394</v>
-      </c>
-      <c r="S12" s="23" t="s">
+      <c r="Q12" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="R12" s="22">
+        <v>9.1508786743363754E-2</v>
+      </c>
+      <c r="S12" s="21" t="s">
         <v>832</v>
       </c>
     </row>
@@ -6921,8 +6918,8 @@
       <c r="L13" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="M13" s="17">
-        <v>18.18705938375458</v>
+      <c r="M13" s="14">
+        <v>3.8057583791409827E-3</v>
       </c>
       <c r="N13" s="13" t="s">
         <v>433</v>
@@ -6930,13 +6927,13 @@
       <c r="O13" s="13" t="s">
         <v>820</v>
       </c>
-      <c r="Q13" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="R13" s="22">
-        <v>9.1508786743363754E-2</v>
-      </c>
-      <c r="S13" s="21" t="s">
+      <c r="Q13" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="R13" s="20">
+        <v>0.34475697926011922</v>
+      </c>
+      <c r="S13" s="19" t="s">
         <v>832</v>
       </c>
     </row>
@@ -6968,8 +6965,8 @@
       <c r="L14" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="M14" s="18">
-        <v>18.209124388720063</v>
+      <c r="M14" s="16">
+        <v>3.8146327566167043E-3</v>
       </c>
       <c r="N14" s="15" t="s">
         <v>433</v>
@@ -6977,13 +6974,13 @@
       <c r="O14" s="15" t="s">
         <v>820</v>
       </c>
-      <c r="Q14" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="R14" s="24">
-        <v>8.4099424771755762E-2</v>
-      </c>
-      <c r="S14" s="23" t="s">
+      <c r="Q14" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="R14" s="22">
+        <v>0.19055359121853394</v>
+      </c>
+      <c r="S14" s="21" t="s">
         <v>832</v>
       </c>
     </row>
@@ -7015,8 +7012,8 @@
       <c r="L15" s="13" t="s">
         <v>438</v>
       </c>
-      <c r="M15" s="17">
-        <v>116.3513046609435</v>
+      <c r="M15" s="14">
+        <v>2.4554589397288176E-2</v>
       </c>
       <c r="N15" s="13" t="s">
         <v>433</v>
@@ -7024,13 +7021,13 @@
       <c r="O15" s="13" t="s">
         <v>820</v>
       </c>
-      <c r="Q15" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="R15" s="22">
-        <v>0.32347881154678343</v>
-      </c>
-      <c r="S15" s="21" t="s">
+      <c r="Q15" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="R15" s="20">
+        <v>8.4099424771755762E-2</v>
+      </c>
+      <c r="S15" s="19" t="s">
         <v>832</v>
       </c>
     </row>
@@ -7062,8 +7059,8 @@
       <c r="L16" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="M16" s="18">
-        <v>40.96887482286764</v>
+      <c r="M16" s="16">
+        <v>8.6789853047830341E-3</v>
       </c>
       <c r="N16" s="15" t="s">
         <v>433</v>
@@ -7071,13 +7068,13 @@
       <c r="O16" s="15" t="s">
         <v>820</v>
       </c>
-      <c r="Q16" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="R16" s="24">
-        <v>0.16560240645944377</v>
-      </c>
-      <c r="S16" s="23" t="s">
+      <c r="Q16" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="R16" s="22">
+        <v>0.32347881154678343</v>
+      </c>
+      <c r="S16" s="21" t="s">
         <v>832</v>
       </c>
     </row>
@@ -7109,8 +7106,8 @@
       <c r="L17" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="M17" s="17">
-        <v>20.512670011751311</v>
+      <c r="M17" s="14">
+        <v>4.3631262689368426E-3</v>
       </c>
       <c r="N17" s="13" t="s">
         <v>433</v>
@@ -7147,8 +7144,8 @@
       <c r="L18" s="15" t="s">
         <v>441</v>
       </c>
-      <c r="M18" s="18">
-        <v>98.696013110461891</v>
+      <c r="M18" s="16">
+        <v>2.1119789066676987E-2</v>
       </c>
       <c r="N18" s="15" t="s">
         <v>433</v>
@@ -7185,8 +7182,8 @@
       <c r="L19" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="M19" s="17">
-        <v>220.70129067326585</v>
+      <c r="M19" s="14">
+        <v>4.6313936752854057E-2</v>
       </c>
       <c r="N19" s="13" t="s">
         <v>433</v>
@@ -7223,8 +7220,8 @@
       <c r="L20" s="15" t="s">
         <v>443</v>
       </c>
-      <c r="M20" s="18">
-        <v>30.836586747467599</v>
+      <c r="M20" s="16">
+        <v>6.4319184906560896E-3</v>
       </c>
       <c r="N20" s="15" t="s">
         <v>433</v>
@@ -7261,8 +7258,8 @@
       <c r="L21" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="M21" s="17">
-        <v>31.255956577396518</v>
+      <c r="M21" s="14">
+        <v>6.5250674318773801E-3</v>
       </c>
       <c r="N21" s="13" t="s">
         <v>433</v>
@@ -7299,8 +7296,8 @@
       <c r="L22" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="M22" s="18">
-        <v>31.390639758430606</v>
+      <c r="M22" s="16">
+        <v>6.5423459611446749E-3</v>
       </c>
       <c r="N22" s="15" t="s">
         <v>433</v>
@@ -7337,8 +7334,8 @@
       <c r="L23" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="M23" s="17">
-        <v>187.36777550519645</v>
+      <c r="M23" s="14">
+        <v>3.9354120611580612E-2</v>
       </c>
       <c r="N23" s="13" t="s">
         <v>433</v>
@@ -7375,8 +7372,8 @@
       <c r="L24" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="M24" s="18">
-        <v>65.453622307540854</v>
+      <c r="M24" s="16">
+        <v>1.378843944592046E-2</v>
       </c>
       <c r="N24" s="15" t="s">
         <v>433</v>
@@ -7413,8 +7410,8 @@
       <c r="L25" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="M25" s="17">
-        <v>33.352974744315873</v>
+      <c r="M25" s="14">
+        <v>7.0030156000229025E-3</v>
       </c>
       <c r="N25" s="13" t="s">
         <v>433</v>
@@ -7451,8 +7448,8 @@
       <c r="L26" s="15" t="s">
         <v>449</v>
       </c>
-      <c r="M26" s="18">
-        <v>160.21896721034659</v>
+      <c r="M26" s="16">
+        <v>3.3720720638796206E-2</v>
       </c>
       <c r="N26" s="15" t="s">
         <v>433</v>
@@ -7489,8 +7486,8 @@
       <c r="L27" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="M27" s="17">
-        <v>0.76384473077449178</v>
+      <c r="M27" s="14">
+        <v>1.5412063027759999E-4</v>
       </c>
       <c r="N27" s="13" t="s">
         <v>433</v>
@@ -7527,8 +7524,8 @@
       <c r="L28" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="M28" s="18">
-        <v>0.66186819452899504</v>
+      <c r="M28" s="16">
+        <v>1.317061044545E-4</v>
       </c>
       <c r="N28" s="15" t="s">
         <v>433</v>
@@ -7565,8 +7562,8 @@
       <c r="L29" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="M29" s="17">
-        <v>0.60169265055437604</v>
+      <c r="M29" s="14">
+        <v>1.186380255878E-4</v>
       </c>
       <c r="N29" s="13" t="s">
         <v>433</v>
@@ -7603,8 +7600,8 @@
       <c r="L30" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="M30" s="18">
-        <v>0.64730128761712502</v>
+      <c r="M30" s="16">
+        <v>1.2847688943159999E-4</v>
       </c>
       <c r="N30" s="15" t="s">
         <v>433</v>
@@ -7641,8 +7638,8 @@
       <c r="L31" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="M31" s="17">
-        <v>0.73652516222678222</v>
+      <c r="M31" s="14">
+        <v>1.456388254166E-4</v>
       </c>
       <c r="N31" s="13" t="s">
         <v>433</v>
@@ -7679,8 +7676,8 @@
       <c r="L32" s="15" t="s">
         <v>455</v>
       </c>
-      <c r="M32" s="18">
-        <v>0.75285262715380374</v>
+      <c r="M32" s="16">
+        <v>1.5089143406190001E-4</v>
       </c>
       <c r="N32" s="15" t="s">
         <v>433</v>
@@ -7717,8 +7714,8 @@
       <c r="L33" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="M33" s="17">
-        <v>0.74347968820484156</v>
+      <c r="M33" s="14">
+        <v>1.4908302833309999E-4</v>
       </c>
       <c r="N33" s="13" t="s">
         <v>433</v>
@@ -7755,8 +7752,8 @@
       <c r="L34" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="M34" s="18">
-        <v>0.67941925166900452</v>
+      <c r="M34" s="16">
+        <v>1.334674538838E-4</v>
       </c>
       <c r="N34" s="15" t="s">
         <v>433</v>
@@ -7793,8 +7790,8 @@
       <c r="L35" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="M35" s="17">
-        <v>0.69941846605861391</v>
+      <c r="M35" s="14">
+        <v>1.3716981125260001E-4</v>
       </c>
       <c r="N35" s="13" t="s">
         <v>433</v>
@@ -7831,8 +7828,8 @@
       <c r="L36" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="M36" s="18">
-        <v>0.7710647181910405</v>
+      <c r="M36" s="16">
+        <v>1.536687417904E-4</v>
       </c>
       <c r="N36" s="15" t="s">
         <v>433</v>
@@ -7869,8 +7866,8 @@
       <c r="L37" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="M37" s="17">
-        <v>0.72739420930654941</v>
+      <c r="M37" s="14">
+        <v>1.4330482198230001E-4</v>
       </c>
       <c r="N37" s="13" t="s">
         <v>433</v>
@@ -7907,8 +7904,8 @@
       <c r="L38" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="M38" s="18">
-        <v>0.60149005845110892</v>
+      <c r="M38" s="16">
+        <v>1.181496877461E-4</v>
       </c>
       <c r="N38" s="15" t="s">
         <v>433</v>
@@ -7945,8 +7942,8 @@
       <c r="L39" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="M39" s="17">
-        <v>0.51524203107055144</v>
+      <c r="M39" s="14">
+        <v>1.00748504866E-4</v>
       </c>
       <c r="N39" s="13" t="s">
         <v>433</v>
@@ -7983,8 +7980,8 @@
       <c r="L40" s="15" t="s">
         <v>463</v>
       </c>
-      <c r="M40" s="18">
-        <v>0.37935325283241261</v>
+      <c r="M40" s="16">
+        <v>7.4274591385245571E-5</v>
       </c>
       <c r="N40" s="15" t="s">
         <v>433</v>
@@ -8021,8 +8018,8 @@
       <c r="L41" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="M41" s="17">
-        <v>0.30458340244589838</v>
+      <c r="M41" s="14">
+        <v>5.9758719632911502E-5</v>
       </c>
       <c r="N41" s="13" t="s">
         <v>433</v>
@@ -8059,8 +8056,8 @@
       <c r="L42" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="M42" s="18">
-        <v>0.25702787844553959</v>
+      <c r="M42" s="16">
+        <v>5.0271304416904729E-5</v>
       </c>
       <c r="N42" s="15" t="s">
         <v>433</v>
@@ -8097,8 +8094,8 @@
       <c r="L43" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="M43" s="17">
-        <v>0.2431451643933292</v>
+      <c r="M43" s="14">
+        <v>4.75882064474169E-5</v>
       </c>
       <c r="N43" s="13" t="s">
         <v>433</v>
@@ -8135,8 +8132,8 @@
       <c r="L44" s="15" t="s">
         <v>467</v>
       </c>
-      <c r="M44" s="18">
-        <v>0.23147289078469149</v>
+      <c r="M44" s="16">
+        <v>4.5393082120769512E-5</v>
       </c>
       <c r="N44" s="15" t="s">
         <v>433</v>
@@ -8173,8 +8170,8 @@
       <c r="L45" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="M45" s="17">
-        <v>0.22782365725443809</v>
+      <c r="M45" s="14">
+        <v>4.4517779497470167E-5</v>
       </c>
       <c r="N45" s="13" t="s">
         <v>433</v>
@@ -8211,8 +8208,8 @@
       <c r="L46" s="15" t="s">
         <v>469</v>
       </c>
-      <c r="M46" s="18">
-        <v>0.19316045592277839</v>
+      <c r="M46" s="16">
+        <v>3.7858152861103477E-5</v>
       </c>
       <c r="N46" s="15" t="s">
         <v>433</v>
@@ -8249,8 +8246,8 @@
       <c r="L47" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="M47" s="17">
-        <v>0.133093921895686</v>
+      <c r="M47" s="14">
+        <v>2.5935431647017989E-5</v>
       </c>
       <c r="N47" s="13" t="s">
         <v>433</v>
@@ -8287,8 +8284,8 @@
       <c r="L48" s="15" t="s">
         <v>471</v>
       </c>
-      <c r="M48" s="18">
-        <v>8.6682513513467396E-2</v>
+      <c r="M48" s="16">
+        <v>1.6846907923636068E-5</v>
       </c>
       <c r="N48" s="15" t="s">
         <v>433</v>
@@ -8325,8 +8322,8 @@
       <c r="L49" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="M49" s="17">
-        <v>7.8789831590512102E-2</v>
+      <c r="M49" s="14">
+        <v>1.5299319326127295E-5</v>
       </c>
       <c r="N49" s="13" t="s">
         <v>433</v>
@@ -8363,8 +8360,8 @@
       <c r="L50" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="M50" s="18">
-        <v>6.0927363763426702E-2</v>
+      <c r="M50" s="16">
+        <v>1.1671800489283324E-5</v>
       </c>
       <c r="N50" s="15" t="s">
         <v>433</v>
@@ -8401,8 +8398,8 @@
       <c r="L51" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="M51" s="17">
-        <v>3.91884398052081E-2</v>
+      <c r="M51" s="14">
+        <v>7.3754374520572201E-6</v>
       </c>
       <c r="N51" s="13" t="s">
         <v>433</v>
@@ -8439,8 +8436,8 @@
       <c r="L52" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="M52" s="18">
-        <v>3.2497100360713203E-2</v>
+      <c r="M52" s="16">
+        <v>6.1544389947006831E-6</v>
       </c>
       <c r="N52" s="15" t="s">
         <v>433</v>
@@ -8477,8 +8474,8 @@
       <c r="L53" s="13" t="s">
         <v>476</v>
       </c>
-      <c r="M53" s="17">
-        <v>3.3637942893759203E-2</v>
+      <c r="M53" s="14">
+        <v>6.3718267214329215E-6</v>
       </c>
       <c r="N53" s="13" t="s">
         <v>433</v>
@@ -8515,8 +8512,8 @@
       <c r="L54" s="15" t="s">
         <v>477</v>
       </c>
-      <c r="M54" s="18">
-        <v>3.2113037010665299E-2</v>
+      <c r="M54" s="16">
+        <v>6.1677360955297357E-6</v>
       </c>
       <c r="N54" s="15" t="s">
         <v>433</v>
@@ -8553,8 +8550,8 @@
       <c r="L55" s="13" t="s">
         <v>478</v>
       </c>
-      <c r="M55" s="17">
-        <v>2.6204461891675902E-2</v>
+      <c r="M55" s="14">
+        <v>4.911705419133097E-6</v>
       </c>
       <c r="N55" s="13" t="s">
         <v>433</v>
@@ -8591,8 +8588,8 @@
       <c r="L56" s="15" t="s">
         <v>479</v>
       </c>
-      <c r="M56" s="18">
-        <v>1.8519462779891201E-2</v>
+      <c r="M56" s="16">
+        <v>2.9127764412671083E-6</v>
       </c>
       <c r="N56" s="15" t="s">
         <v>433</v>
@@ -8629,8 +8626,8 @@
       <c r="L57" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="M57" s="17">
-        <v>7.5513412263684002E-3</v>
+      <c r="M57" s="14">
+        <v>7.2777472916820207E-7</v>
       </c>
       <c r="N57" s="13" t="s">
         <v>433</v>
@@ -8667,7 +8664,7 @@
       <c r="L58" s="15" t="s">
         <v>481</v>
       </c>
-      <c r="M58" s="18">
+      <c r="M58" s="16">
         <v>0</v>
       </c>
       <c r="N58" s="15" t="s">
@@ -8705,7 +8702,7 @@
       <c r="L59" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="M59" s="17">
+      <c r="M59" s="14">
         <v>0</v>
       </c>
       <c r="N59" s="13" t="s">
@@ -8743,7 +8740,7 @@
       <c r="L60" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="M60" s="18">
+      <c r="M60" s="16">
         <v>0</v>
       </c>
       <c r="N60" s="15" t="s">
@@ -8781,8 +8778,8 @@
       <c r="L61" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="M61" s="17">
-        <v>6.3866281534309E-3</v>
+      <c r="M61" s="14">
+        <v>1.2200276888369615E-6</v>
       </c>
       <c r="N61" s="13" t="s">
         <v>433</v>
@@ -8819,8 +8816,8 @@
       <c r="L62" s="15" t="s">
         <v>485</v>
       </c>
-      <c r="M62" s="18">
-        <v>8.0432433704627007E-3</v>
+      <c r="M62" s="16">
+        <v>1.5784002234077702E-6</v>
       </c>
       <c r="N62" s="15" t="s">
         <v>433</v>
@@ -8857,8 +8854,8 @@
       <c r="L63" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="M63" s="17">
-        <v>2.1342469807234799E-2</v>
+      <c r="M63" s="14">
+        <v>3.5885061120390404E-6</v>
       </c>
       <c r="N63" s="13" t="s">
         <v>433</v>
@@ -8895,8 +8892,8 @@
       <c r="L64" s="15" t="s">
         <v>487</v>
       </c>
-      <c r="M64" s="18">
-        <v>2.07988523036894E-2</v>
+      <c r="M64" s="16">
+        <v>3.1104216225439008E-6</v>
       </c>
       <c r="N64" s="15" t="s">
         <v>433</v>
@@ -8933,8 +8930,8 @@
       <c r="L65" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="M65" s="17">
-        <v>3.1938298210645102E-2</v>
+      <c r="M65" s="14">
+        <v>6.0401147155584642E-6</v>
       </c>
       <c r="N65" s="13" t="s">
         <v>433</v>
@@ -8971,8 +8968,8 @@
       <c r="L66" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="M66" s="18">
-        <v>4.1921337523241502E-2</v>
+      <c r="M66" s="16">
+        <v>8.1227261092729427E-6</v>
       </c>
       <c r="N66" s="15" t="s">
         <v>433</v>
@@ -9009,8 +9006,8 @@
       <c r="L67" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="M67" s="17">
-        <v>6.0232859649634797E-2</v>
+      <c r="M67" s="14">
+        <v>1.1755555028894882E-5</v>
       </c>
       <c r="N67" s="13" t="s">
         <v>433</v>
@@ -9047,8 +9044,8 @@
       <c r="L68" s="15" t="s">
         <v>491</v>
       </c>
-      <c r="M68" s="18">
-        <v>8.6109266091279807E-2</v>
+      <c r="M68" s="16">
+        <v>1.6699741153501395E-5</v>
       </c>
       <c r="N68" s="15" t="s">
         <v>433</v>
@@ -9085,8 +9082,8 @@
       <c r="L69" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="M69" s="17">
-        <v>0.107621848080678</v>
+      <c r="M69" s="14">
+        <v>2.1020485644544116E-5</v>
       </c>
       <c r="N69" s="13" t="s">
         <v>433</v>
@@ -9123,8 +9120,8 @@
       <c r="L70" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="M70" s="18">
-        <v>0.17723497120769971</v>
+      <c r="M70" s="16">
+        <v>3.4982762230429651E-5</v>
       </c>
       <c r="N70" s="15" t="s">
         <v>433</v>
@@ -9161,8 +9158,8 @@
       <c r="L71" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="M71" s="17">
-        <v>0.3121468702942608</v>
+      <c r="M71" s="14">
+        <v>6.1529935098663974E-5</v>
       </c>
       <c r="N71" s="13" t="s">
         <v>433</v>
@@ -9199,8 +9196,8 @@
       <c r="L72" s="15" t="s">
         <v>495</v>
       </c>
-      <c r="M72" s="18">
-        <v>0.40020804236569552</v>
+      <c r="M72" s="16">
+        <v>7.894100459205215E-5</v>
       </c>
       <c r="N72" s="15" t="s">
         <v>433</v>
@@ -9237,8 +9234,8 @@
       <c r="L73" s="13" t="s">
         <v>496</v>
       </c>
-      <c r="M73" s="17">
-        <v>0.53958109184749159</v>
+      <c r="M73" s="14">
+        <v>1.064320740015E-4</v>
       </c>
       <c r="N73" s="13" t="s">
         <v>433</v>
@@ -9275,8 +9272,8 @@
       <c r="L74" s="15" t="s">
         <v>497</v>
       </c>
-      <c r="M74" s="18">
-        <v>0.65322537560930605</v>
+      <c r="M74" s="16">
+        <v>1.307968540505E-4</v>
       </c>
       <c r="N74" s="15" t="s">
         <v>433</v>
@@ -9313,8 +9310,8 @@
       <c r="L75" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="M75" s="17">
-        <v>0.64429564687864005</v>
+      <c r="M75" s="14">
+        <v>1.294298718195E-4</v>
       </c>
       <c r="N75" s="13" t="s">
         <v>433</v>
@@ -9351,8 +9348,8 @@
       <c r="L76" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="M76" s="18">
-        <v>0.70480385997579953</v>
+      <c r="M76" s="16">
+        <v>1.4322657632709999E-4</v>
       </c>
       <c r="N76" s="15" t="s">
         <v>433</v>
@@ -9389,8 +9386,8 @@
       <c r="L77" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="M77" s="17">
-        <v>0.83142734038868982</v>
+      <c r="M77" s="14">
+        <v>1.690906561583E-4</v>
       </c>
       <c r="N77" s="13" t="s">
         <v>433</v>
@@ -9427,8 +9424,8 @@
       <c r="L78" s="15" t="s">
         <v>501</v>
       </c>
-      <c r="M78" s="18">
-        <v>0.8453940872607193</v>
+      <c r="M78" s="16">
+        <v>1.713802896701E-4</v>
       </c>
       <c r="N78" s="15" t="s">
         <v>433</v>
@@ -9465,8 +9462,8 @@
       <c r="L79" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="M79" s="17">
-        <v>0.89389737702824446</v>
+      <c r="M79" s="14">
+        <v>1.8108111578120001E-4</v>
       </c>
       <c r="N79" s="13" t="s">
         <v>433</v>
@@ -9503,8 +9500,8 @@
       <c r="L80" s="15" t="s">
         <v>503</v>
       </c>
-      <c r="M80" s="18">
-        <v>0.96901506930458603</v>
+      <c r="M80" s="16">
+        <v>2.057982878498E-4</v>
       </c>
       <c r="N80" s="15" t="s">
         <v>433</v>
@@ -9541,8 +9538,8 @@
       <c r="L81" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="M81" s="17">
-        <v>0.98871285633094463</v>
+      <c r="M81" s="14">
+        <v>2.1236863450140001E-4</v>
       </c>
       <c r="N81" s="13" t="s">
         <v>433</v>
@@ -9579,8 +9576,8 @@
       <c r="L82" s="15" t="s">
         <v>505</v>
       </c>
-      <c r="M82" s="18">
-        <v>0.99499008345903084</v>
+      <c r="M82" s="16">
+        <v>2.142885134741E-4</v>
       </c>
       <c r="N82" s="15" t="s">
         <v>433</v>
@@ -9617,8 +9614,8 @@
       <c r="L83" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="M83" s="17">
-        <v>0.99962889933298682</v>
+      <c r="M83" s="14">
+        <v>2.1860043516519999E-4</v>
       </c>
       <c r="N83" s="13" t="s">
         <v>433</v>
@@ -9655,8 +9652,8 @@
       <c r="L84" s="15" t="s">
         <v>507</v>
       </c>
-      <c r="M84" s="18">
-        <v>0.99936702823533297</v>
+      <c r="M84" s="16">
+        <v>2.2031067343740001E-4</v>
       </c>
       <c r="N84" s="15" t="s">
         <v>433</v>
@@ -9693,8 +9690,8 @@
       <c r="L85" s="13" t="s">
         <v>508</v>
       </c>
-      <c r="M85" s="17">
-        <v>0.99957562015717238</v>
+      <c r="M85" s="14">
+        <v>2.213443191127E-4</v>
       </c>
       <c r="N85" s="13" t="s">
         <v>433</v>
@@ -9731,8 +9728,8 @@
       <c r="L86" s="15" t="s">
         <v>509</v>
       </c>
-      <c r="M86" s="18">
-        <v>0.99982182958845478</v>
+      <c r="M86" s="16">
+        <v>2.2188165245080001E-4</v>
       </c>
       <c r="N86" s="15" t="s">
         <v>433</v>
@@ -9769,8 +9766,8 @@
       <c r="L87" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="M87" s="17">
-        <v>0.99988058864216778</v>
+      <c r="M87" s="14">
+        <v>2.219051028443E-4</v>
       </c>
       <c r="N87" s="13" t="s">
         <v>433</v>
@@ -9807,8 +9804,8 @@
       <c r="L88" s="15" t="s">
         <v>511</v>
       </c>
-      <c r="M88" s="18">
-        <v>0.99985233684604724</v>
+      <c r="M88" s="16">
+        <v>2.2179927863360001E-4</v>
       </c>
       <c r="N88" s="15" t="s">
         <v>433</v>
@@ -9845,8 +9842,8 @@
       <c r="L89" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="M89" s="17">
-        <v>0.99961479934129638</v>
+      <c r="M89" s="14">
+        <v>2.2093436726930001E-4</v>
       </c>
       <c r="N89" s="13" t="s">
         <v>433</v>
@@ -9883,8 +9880,8 @@
       <c r="L90" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="M90" s="18">
-        <v>0.99962416759532158</v>
+      <c r="M90" s="16">
+        <v>2.201155071371E-4</v>
       </c>
       <c r="N90" s="15" t="s">
         <v>433</v>
@@ -9921,8 +9918,8 @@
       <c r="L91" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="M91" s="17">
-        <v>0.99933292281212482</v>
+      <c r="M91" s="14">
+        <v>2.211812741714E-4</v>
       </c>
       <c r="N91" s="13" t="s">
         <v>433</v>
@@ -9959,8 +9956,8 @@
       <c r="L92" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="M92" s="18">
-        <v>0.99884140302728996</v>
+      <c r="M92" s="16">
+        <v>2.2135051031220001E-4</v>
       </c>
       <c r="N92" s="15" t="s">
         <v>433</v>
@@ -9997,8 +9994,8 @@
       <c r="L93" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="M93" s="17">
-        <v>0.99850108303815677</v>
+      <c r="M93" s="14">
+        <v>2.2040770314399999E-4</v>
       </c>
       <c r="N93" s="13" t="s">
         <v>433</v>
@@ -10035,8 +10032,8 @@
       <c r="L94" s="15" t="s">
         <v>517</v>
       </c>
-      <c r="M94" s="18">
-        <v>0.99764049715438285</v>
+      <c r="M94" s="16">
+        <v>2.199971615108E-4</v>
       </c>
       <c r="N94" s="15" t="s">
         <v>433</v>
@@ -10073,8 +10070,8 @@
       <c r="L95" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="M95" s="17">
-        <v>0.99642656575979061</v>
+      <c r="M95" s="14">
+        <v>2.1798108210780001E-4</v>
       </c>
       <c r="N95" s="13" t="s">
         <v>433</v>
@@ -10111,8 +10108,8 @@
       <c r="L96" s="15" t="s">
         <v>519</v>
       </c>
-      <c r="M96" s="18">
-        <v>0.99124913240650403</v>
+      <c r="M96" s="16">
+        <v>2.126303012166E-4</v>
       </c>
       <c r="N96" s="15" t="s">
         <v>433</v>
@@ -10149,8 +10146,8 @@
       <c r="L97" s="13" t="s">
         <v>520</v>
       </c>
-      <c r="M97" s="17">
-        <v>0.90179237968569903</v>
+      <c r="M97" s="14">
+        <v>1.8142010369260001E-4</v>
       </c>
       <c r="N97" s="13" t="s">
         <v>433</v>
@@ -10187,8 +10184,8 @@
       <c r="L98" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="M98" s="18">
-        <v>0.85858742688695222</v>
+      <c r="M98" s="16">
+        <v>1.72370866589E-4</v>
       </c>
       <c r="N98" s="15" t="s">
         <v>433</v>
@@ -10225,8 +10222,8 @@
       <c r="L99" s="13" t="s">
         <v>522</v>
       </c>
-      <c r="M99" s="17">
-        <v>0.82309788428702446</v>
+      <c r="M99" s="14">
+        <v>1.6501523035039999E-4</v>
       </c>
       <c r="N99" s="13" t="s">
         <v>433</v>
@@ -10263,8 +10260,8 @@
       <c r="L100" s="15" t="s">
         <v>523</v>
       </c>
-      <c r="M100" s="18">
-        <v>0.78828950276869436</v>
+      <c r="M100" s="16">
+        <v>1.5822428737519999E-4</v>
       </c>
       <c r="N100" s="15" t="s">
         <v>433</v>
@@ -10301,8 +10298,8 @@
       <c r="L101" s="13" t="s">
         <v>524</v>
       </c>
-      <c r="M101" s="17">
-        <v>0.7341777287318324</v>
+      <c r="M101" s="14">
+        <v>1.4453611915240001E-4</v>
       </c>
       <c r="N101" s="13" t="s">
         <v>433</v>
@@ -10339,8 +10336,8 @@
       <c r="L102" s="15" t="s">
         <v>525</v>
       </c>
-      <c r="M102" s="18">
-        <v>0.70898974288311167</v>
+      <c r="M102" s="16">
+        <v>1.392898517982E-4</v>
       </c>
       <c r="N102" s="15" t="s">
         <v>433</v>
@@ -10377,8 +10374,8 @@
       <c r="L103" s="13" t="s">
         <v>526</v>
       </c>
-      <c r="M103" s="17">
-        <v>0.65394007452225023</v>
+      <c r="M103" s="14">
+        <v>1.2810986339840001E-4</v>
       </c>
       <c r="N103" s="13" t="s">
         <v>433</v>
@@ -10415,8 +10412,8 @@
       <c r="L104" s="15" t="s">
         <v>527</v>
       </c>
-      <c r="M104" s="18">
-        <v>0.58304421649890048</v>
+      <c r="M104" s="16">
+        <v>1.1481646602759999E-4</v>
       </c>
       <c r="N104" s="15" t="s">
         <v>433</v>
@@ -10453,8 +10450,8 @@
       <c r="L105" s="13" t="s">
         <v>528</v>
       </c>
-      <c r="M105" s="17">
-        <v>0.52750454832650684</v>
+      <c r="M105" s="14">
+        <v>1.039285057794E-4</v>
       </c>
       <c r="N105" s="13" t="s">
         <v>433</v>
@@ -10491,8 +10488,8 @@
       <c r="L106" s="15" t="s">
         <v>529</v>
       </c>
-      <c r="M106" s="18">
-        <v>0.51535906461144254</v>
+      <c r="M106" s="16">
+        <v>1.013638212341E-4</v>
       </c>
       <c r="N106" s="15" t="s">
         <v>433</v>
@@ -10529,8 +10526,8 @@
       <c r="L107" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="M107" s="17">
-        <v>0.53876708168496135</v>
+      <c r="M107" s="14">
+        <v>1.059554526081E-4</v>
       </c>
       <c r="N107" s="13" t="s">
         <v>433</v>
@@ -10567,8 +10564,8 @@
       <c r="L108" s="15" t="s">
         <v>531</v>
       </c>
-      <c r="M108" s="18">
-        <v>0.53572914080086709</v>
+      <c r="M108" s="16">
+        <v>1.048519034626E-4</v>
       </c>
       <c r="N108" s="15" t="s">
         <v>433</v>
@@ -10605,8 +10602,8 @@
       <c r="L109" s="13" t="s">
         <v>532</v>
       </c>
-      <c r="M109" s="17">
-        <v>0.3398322218407413</v>
+      <c r="M109" s="14">
+        <v>6.6975284111642282E-5</v>
       </c>
       <c r="N109" s="13" t="s">
         <v>433</v>
@@ -10643,8 +10640,8 @@
       <c r="L110" s="15" t="s">
         <v>533</v>
       </c>
-      <c r="M110" s="18">
-        <v>0.26742391740862281</v>
+      <c r="M110" s="16">
+        <v>5.2329103433079789E-5</v>
       </c>
       <c r="N110" s="15" t="s">
         <v>433</v>
@@ -10681,8 +10678,8 @@
       <c r="L111" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="M111" s="17">
-        <v>0.2396532372492364</v>
+      <c r="M111" s="14">
+        <v>4.6858078626414391E-5</v>
       </c>
       <c r="N111" s="13" t="s">
         <v>433</v>
@@ -10719,8 +10716,8 @@
       <c r="L112" s="15" t="s">
         <v>535</v>
       </c>
-      <c r="M112" s="18">
-        <v>0.2149963177002211</v>
+      <c r="M112" s="16">
+        <v>4.2313859732497148E-5</v>
       </c>
       <c r="N112" s="15" t="s">
         <v>433</v>
@@ -10757,8 +10754,8 @@
       <c r="L113" s="13" t="s">
         <v>536</v>
       </c>
-      <c r="M113" s="17">
-        <v>0.17982460798913649</v>
+      <c r="M113" s="14">
+        <v>3.5175605359819023E-5</v>
       </c>
       <c r="N113" s="13" t="s">
         <v>433</v>
@@ -10795,8 +10792,8 @@
       <c r="L114" s="15" t="s">
         <v>537</v>
       </c>
-      <c r="M114" s="18">
-        <v>0.15112528557967081</v>
+      <c r="M114" s="16">
+        <v>2.926173773090804E-5</v>
       </c>
       <c r="N114" s="15" t="s">
         <v>433</v>
@@ -10833,8 +10830,8 @@
       <c r="L115" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="M115" s="17">
-        <v>0.1245430745728375</v>
+      <c r="M115" s="14">
+        <v>2.4196505163618049E-5</v>
       </c>
       <c r="N115" s="13" t="s">
         <v>433</v>
@@ -10871,8 +10868,8 @@
       <c r="L116" s="15" t="s">
         <v>539</v>
       </c>
-      <c r="M116" s="18">
-        <v>9.8380935142702505E-2</v>
+      <c r="M116" s="16">
+        <v>1.8914099820821556E-5</v>
       </c>
       <c r="N116" s="15" t="s">
         <v>433</v>
@@ -10909,8 +10906,8 @@
       <c r="L117" s="13" t="s">
         <v>540</v>
       </c>
-      <c r="M117" s="17">
-        <v>8.0672975431503896E-2</v>
+      <c r="M117" s="14">
+        <v>1.5223610633722396E-5</v>
       </c>
       <c r="N117" s="13" t="s">
         <v>433</v>
@@ -10947,8 +10944,8 @@
       <c r="L118" s="15" t="s">
         <v>541</v>
       </c>
-      <c r="M118" s="18">
-        <v>6.9661536489075596E-2</v>
+      <c r="M118" s="16">
+        <v>1.32919925920591E-5</v>
       </c>
       <c r="N118" s="15" t="s">
         <v>433</v>
@@ -10985,8 +10982,8 @@
       <c r="L119" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="M119" s="17">
-        <v>6.4642338191489193E-2</v>
+      <c r="M119" s="14">
+        <v>1.2265099487386832E-5</v>
       </c>
       <c r="N119" s="13" t="s">
         <v>433</v>
@@ -11023,8 +11020,8 @@
       <c r="L120" s="15" t="s">
         <v>543</v>
       </c>
-      <c r="M120" s="18">
-        <v>5.2207229049641597E-2</v>
+      <c r="M120" s="16">
+        <v>9.6293231441376034E-6</v>
       </c>
       <c r="N120" s="15" t="s">
         <v>433</v>
@@ -11061,8 +11058,8 @@
       <c r="L121" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="M121" s="17">
-        <v>3.6148991018041601E-2</v>
+      <c r="M121" s="14">
+        <v>6.8066546510964325E-6</v>
       </c>
       <c r="N121" s="13" t="s">
         <v>433</v>
@@ -11099,8 +11096,8 @@
       <c r="L122" s="15" t="s">
         <v>545</v>
       </c>
-      <c r="M122" s="18">
-        <v>2.6366907932655999E-2</v>
+      <c r="M122" s="16">
+        <v>4.7903814279909756E-6</v>
       </c>
       <c r="N122" s="15" t="s">
         <v>433</v>
@@ -11137,8 +11134,8 @@
       <c r="L123" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="M123" s="17">
-        <v>1.9938573796943599E-2</v>
+      <c r="M123" s="14">
+        <v>2.8292815265802107E-6</v>
       </c>
       <c r="N123" s="13" t="s">
         <v>433</v>
@@ -11175,8 +11172,8 @@
       <c r="L124" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="M124" s="18">
-        <v>1.1768619935646299E-2</v>
+      <c r="M124" s="16">
+        <v>2.1413726546010309E-6</v>
       </c>
       <c r="N124" s="15" t="s">
         <v>433</v>
@@ -11213,8 +11210,8 @@
       <c r="L125" s="13" t="s">
         <v>548</v>
       </c>
-      <c r="M125" s="17">
-        <v>9.5632195341589007E-3</v>
+      <c r="M125" s="14">
+        <v>1.7366963114378776E-6</v>
       </c>
       <c r="N125" s="13" t="s">
         <v>433</v>
@@ -11251,8 +11248,8 @@
       <c r="L126" s="15" t="s">
         <v>549</v>
       </c>
-      <c r="M126" s="18">
-        <v>6.4057683080985996E-3</v>
+      <c r="M126" s="16">
+        <v>1.1093523941913488E-6</v>
       </c>
       <c r="N126" s="15" t="s">
         <v>433</v>
@@ -11289,8 +11286,8 @@
       <c r="L127" s="13" t="s">
         <v>550</v>
       </c>
-      <c r="M127" s="17">
-        <v>7.8762329223751992E-3</v>
+      <c r="M127" s="14">
+        <v>1.3808153173501716E-6</v>
       </c>
       <c r="N127" s="13" t="s">
         <v>433</v>
@@ -11327,8 +11324,8 @@
       <c r="L128" s="15" t="s">
         <v>551</v>
       </c>
-      <c r="M128" s="18">
-        <v>9.8605695449041006E-3</v>
+      <c r="M128" s="16">
+        <v>1.8016198694010248E-6</v>
       </c>
       <c r="N128" s="15" t="s">
         <v>433</v>
@@ -11365,8 +11362,8 @@
       <c r="L129" s="13" t="s">
         <v>552</v>
       </c>
-      <c r="M129" s="17">
-        <v>1.26526122222892E-2</v>
+      <c r="M129" s="14">
+        <v>2.2743676910420048E-6</v>
       </c>
       <c r="N129" s="13" t="s">
         <v>433</v>
@@ -11403,8 +11400,8 @@
       <c r="L130" s="15" t="s">
         <v>553</v>
       </c>
-      <c r="M130" s="18">
-        <v>2.5486423536793999E-2</v>
+      <c r="M130" s="16">
+        <v>4.6035914333413458E-6</v>
       </c>
       <c r="N130" s="15" t="s">
         <v>433</v>
@@ -11441,8 +11438,8 @@
       <c r="L131" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="M131" s="17">
-        <v>4.5432374987242598E-2</v>
+      <c r="M131" s="14">
+        <v>8.6184539436380801E-6</v>
       </c>
       <c r="N131" s="13" t="s">
         <v>433</v>
@@ -11479,8 +11476,8 @@
       <c r="L132" s="15" t="s">
         <v>555</v>
       </c>
-      <c r="M132" s="18">
-        <v>5.33955789477744E-2</v>
+      <c r="M132" s="16">
+        <v>1.0223755206018322E-5</v>
       </c>
       <c r="N132" s="15" t="s">
         <v>433</v>
@@ -11517,8 +11514,8 @@
       <c r="L133" s="13" t="s">
         <v>556</v>
       </c>
-      <c r="M133" s="17">
-        <v>1.7944453708633901E-2</v>
+      <c r="M133" s="14">
+        <v>3.169798255487632E-6</v>
       </c>
       <c r="N133" s="13" t="s">
         <v>433</v>
@@ -11555,8 +11552,8 @@
       <c r="L134" s="15" t="s">
         <v>557</v>
       </c>
-      <c r="M134" s="18">
-        <v>1.10911108047127E-2</v>
+      <c r="M134" s="16">
+        <v>1.3943571096877538E-6</v>
       </c>
       <c r="N134" s="15" t="s">
         <v>433</v>
@@ -11593,8 +11590,8 @@
       <c r="L135" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="M135" s="17">
-        <v>1.1067479222188999E-3</v>
+      <c r="M135" s="14">
+        <v>1.8459651998009504E-7</v>
       </c>
       <c r="N135" s="13" t="s">
         <v>433</v>
@@ -11631,8 +11628,8 @@
       <c r="L136" s="15" t="s">
         <v>559</v>
       </c>
-      <c r="M136" s="18">
-        <v>1.0631725664955001E-3</v>
+      <c r="M136" s="16">
+        <v>1.7302681230075346E-7</v>
       </c>
       <c r="N136" s="15" t="s">
         <v>433</v>
@@ -11669,8 +11666,8 @@
       <c r="L137" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="M137" s="17">
-        <v>7.2477562669923E-3</v>
+      <c r="M137" s="14">
+        <v>1.2360795414613089E-6</v>
       </c>
       <c r="N137" s="13" t="s">
         <v>433</v>
@@ -11707,8 +11704,8 @@
       <c r="L138" s="15" t="s">
         <v>561</v>
       </c>
-      <c r="M138" s="18">
-        <v>1.33597649839535E-2</v>
+      <c r="M138" s="16">
+        <v>1.7413108919003126E-6</v>
       </c>
       <c r="N138" s="15" t="s">
         <v>433</v>
@@ -11745,8 +11742,8 @@
       <c r="L139" s="13" t="s">
         <v>562</v>
       </c>
-      <c r="M139" s="17">
-        <v>2.8082240434668199E-2</v>
+      <c r="M139" s="14">
+        <v>5.1424026886565019E-6</v>
       </c>
       <c r="N139" s="13" t="s">
         <v>433</v>
@@ -11783,8 +11780,8 @@
       <c r="L140" s="15" t="s">
         <v>563</v>
       </c>
-      <c r="M140" s="18">
-        <v>5.6735710340227202E-2</v>
+      <c r="M140" s="16">
+        <v>1.0677621874271054E-5</v>
       </c>
       <c r="N140" s="15" t="s">
         <v>433</v>
@@ -11821,8 +11818,8 @@
       <c r="L141" s="13" t="s">
         <v>564</v>
       </c>
-      <c r="M141" s="17">
-        <v>8.1104765448739E-2</v>
+      <c r="M141" s="14">
+        <v>1.5581244753374555E-5</v>
       </c>
       <c r="N141" s="13" t="s">
         <v>433</v>
@@ -11859,8 +11856,8 @@
       <c r="L142" s="15" t="s">
         <v>565</v>
       </c>
-      <c r="M142" s="18">
-        <v>9.1199330467871195E-2</v>
+      <c r="M142" s="16">
+        <v>1.7308568238618497E-5</v>
       </c>
       <c r="N142" s="15" t="s">
         <v>433</v>
@@ -11897,8 +11894,8 @@
       <c r="L143" s="13" t="s">
         <v>566</v>
       </c>
-      <c r="M143" s="17">
-        <v>8.4002387264757006E-2</v>
+      <c r="M143" s="14">
+        <v>1.6053529456607033E-5</v>
       </c>
       <c r="N143" s="13" t="s">
         <v>433</v>
@@ -11935,8 +11932,8 @@
       <c r="L144" s="15" t="s">
         <v>567</v>
       </c>
-      <c r="M144" s="18">
-        <v>7.8584984573156602E-2</v>
+      <c r="M144" s="16">
+        <v>1.5059165056482107E-5</v>
       </c>
       <c r="N144" s="15" t="s">
         <v>433</v>
@@ -11973,8 +11970,8 @@
       <c r="L145" s="13" t="s">
         <v>568</v>
       </c>
-      <c r="M145" s="17">
-        <v>7.51638568691846E-2</v>
+      <c r="M145" s="14">
+        <v>1.4678919239378566E-5</v>
       </c>
       <c r="N145" s="13" t="s">
         <v>433</v>
@@ -12011,8 +12008,8 @@
       <c r="L146" s="15" t="s">
         <v>569</v>
       </c>
-      <c r="M146" s="18">
-        <v>6.27044385989321E-2</v>
+      <c r="M146" s="16">
+        <v>1.2076391975118045E-5</v>
       </c>
       <c r="N146" s="15" t="s">
         <v>433</v>
@@ -12049,8 +12046,8 @@
       <c r="L147" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="M147" s="17">
-        <v>4.0997137740250801E-2</v>
+      <c r="M147" s="14">
+        <v>7.6854436248071047E-6</v>
       </c>
       <c r="N147" s="13" t="s">
         <v>433</v>
@@ -12087,8 +12084,8 @@
       <c r="L148" s="15" t="s">
         <v>571</v>
       </c>
-      <c r="M148" s="18">
-        <v>2.9768579070969799E-2</v>
+      <c r="M148" s="16">
+        <v>5.6402304461845349E-6</v>
       </c>
       <c r="N148" s="15" t="s">
         <v>433</v>
@@ -12125,8 +12122,8 @@
       <c r="L149" s="13" t="s">
         <v>572</v>
       </c>
-      <c r="M149" s="17">
-        <v>3.4051859854321999E-2</v>
+      <c r="M149" s="14">
+        <v>6.4668772901883491E-6</v>
       </c>
       <c r="N149" s="13" t="s">
         <v>433</v>
@@ -12163,8 +12160,8 @@
       <c r="L150" s="15" t="s">
         <v>573</v>
       </c>
-      <c r="M150" s="18">
-        <v>3.1969723184207502E-2</v>
+      <c r="M150" s="16">
+        <v>6.0011018111364586E-6</v>
       </c>
       <c r="N150" s="15" t="s">
         <v>433</v>
@@ -12201,8 +12198,8 @@
       <c r="L151" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="M151" s="17">
-        <v>1.91161903773245E-2</v>
+      <c r="M151" s="14">
+        <v>3.1718993412286982E-6</v>
       </c>
       <c r="N151" s="13" t="s">
         <v>433</v>
@@ -12239,8 +12236,8 @@
       <c r="L152" s="15" t="s">
         <v>575</v>
       </c>
-      <c r="M152" s="18">
-        <v>3.7911389543551E-3</v>
+      <c r="M152" s="16">
+        <v>0</v>
       </c>
       <c r="N152" s="15" t="s">
         <v>433</v>
@@ -12277,7 +12274,7 @@
       <c r="L153" s="13" t="s">
         <v>576</v>
       </c>
-      <c r="M153" s="17">
+      <c r="M153" s="14">
         <v>0</v>
       </c>
       <c r="N153" s="13" t="s">
@@ -12315,7 +12312,7 @@
       <c r="L154" s="15" t="s">
         <v>577</v>
       </c>
-      <c r="M154" s="18">
+      <c r="M154" s="16">
         <v>0</v>
       </c>
       <c r="N154" s="15" t="s">
@@ -12353,7 +12350,7 @@
       <c r="L155" s="13" t="s">
         <v>578</v>
       </c>
-      <c r="M155" s="17">
+      <c r="M155" s="14">
         <v>0</v>
       </c>
       <c r="N155" s="13" t="s">
@@ -12391,7 +12388,7 @@
       <c r="L156" s="15" t="s">
         <v>579</v>
       </c>
-      <c r="M156" s="18">
+      <c r="M156" s="16">
         <v>0</v>
       </c>
       <c r="N156" s="15" t="s">
@@ -12429,7 +12426,7 @@
       <c r="L157" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="M157" s="17">
+      <c r="M157" s="14">
         <v>0</v>
       </c>
       <c r="N157" s="13" t="s">
@@ -12467,7 +12464,7 @@
       <c r="L158" s="15" t="s">
         <v>581</v>
       </c>
-      <c r="M158" s="18">
+      <c r="M158" s="16">
         <v>0</v>
       </c>
       <c r="N158" s="15" t="s">
@@ -12505,7 +12502,7 @@
       <c r="L159" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="M159" s="17">
+      <c r="M159" s="14">
         <v>0</v>
       </c>
       <c r="N159" s="13" t="s">
@@ -12543,7 +12540,7 @@
       <c r="L160" s="15" t="s">
         <v>583</v>
       </c>
-      <c r="M160" s="18">
+      <c r="M160" s="16">
         <v>0</v>
       </c>
       <c r="N160" s="15" t="s">
@@ -12581,7 +12578,7 @@
       <c r="L161" s="13" t="s">
         <v>584</v>
       </c>
-      <c r="M161" s="17">
+      <c r="M161" s="14">
         <v>0</v>
       </c>
       <c r="N161" s="13" t="s">
@@ -12619,7 +12616,7 @@
       <c r="L162" s="15" t="s">
         <v>585</v>
       </c>
-      <c r="M162" s="18">
+      <c r="M162" s="16">
         <v>0</v>
       </c>
       <c r="N162" s="15" t="s">
@@ -12657,7 +12654,7 @@
       <c r="L163" s="13" t="s">
         <v>586</v>
       </c>
-      <c r="M163" s="17">
+      <c r="M163" s="14">
         <v>0</v>
       </c>
       <c r="N163" s="13" t="s">
@@ -12695,7 +12692,7 @@
       <c r="L164" s="15" t="s">
         <v>587</v>
       </c>
-      <c r="M164" s="18">
+      <c r="M164" s="16">
         <v>0</v>
       </c>
       <c r="N164" s="15" t="s">
@@ -12733,7 +12730,7 @@
       <c r="L165" s="13" t="s">
         <v>588</v>
       </c>
-      <c r="M165" s="17">
+      <c r="M165" s="14">
         <v>0</v>
       </c>
       <c r="N165" s="13" t="s">
@@ -12771,8 +12768,8 @@
       <c r="L166" s="15" t="s">
         <v>589</v>
       </c>
-      <c r="M166" s="18">
-        <v>4.0488611228830153E-5</v>
+      <c r="M166" s="16">
+        <v>5.9830704470064803E-9</v>
       </c>
       <c r="N166" s="15" t="s">
         <v>433</v>
@@ -12809,8 +12806,8 @@
       <c r="L167" s="13" t="s">
         <v>590</v>
       </c>
-      <c r="M167" s="17">
-        <v>5.197297344862057E-5</v>
+      <c r="M167" s="14">
+        <v>8.2842672094377163E-9</v>
       </c>
       <c r="N167" s="13" t="s">
         <v>433</v>
@@ -12847,8 +12844,8 @@
       <c r="L168" s="15" t="s">
         <v>591</v>
       </c>
-      <c r="M168" s="18">
-        <v>3.2165149926521686E-5</v>
+      <c r="M168" s="16">
+        <v>0</v>
       </c>
       <c r="N168" s="15" t="s">
         <v>433</v>
@@ -12885,8 +12882,8 @@
       <c r="L169" s="13" t="s">
         <v>592</v>
       </c>
-      <c r="M169" s="17">
-        <v>5.6449096596689023E-5</v>
+      <c r="M169" s="14">
+        <v>9.180972147371511E-9</v>
       </c>
       <c r="N169" s="13" t="s">
         <v>433</v>
@@ -12923,7 +12920,7 @@
       <c r="L170" s="15" t="s">
         <v>593</v>
       </c>
-      <c r="M170" s="18">
+      <c r="M170" s="16">
         <v>0</v>
       </c>
       <c r="N170" s="15" t="s">
@@ -12961,7 +12958,7 @@
       <c r="L171" s="13" t="s">
         <v>594</v>
       </c>
-      <c r="M171" s="17">
+      <c r="M171" s="14">
         <v>0</v>
       </c>
       <c r="N171" s="13" t="s">
@@ -12999,7 +12996,7 @@
       <c r="L172" s="15" t="s">
         <v>595</v>
       </c>
-      <c r="M172" s="18">
+      <c r="M172" s="16">
         <v>0</v>
       </c>
       <c r="N172" s="15" t="s">
@@ -13037,8 +13034,8 @@
       <c r="L173" s="13" t="s">
         <v>596</v>
       </c>
-      <c r="M173" s="17">
-        <v>2.2089890549584E-3</v>
+      <c r="M173" s="14">
+        <v>5.1042584008755229E-9</v>
       </c>
       <c r="N173" s="13" t="s">
         <v>433</v>
@@ -13075,8 +13072,8 @@
       <c r="L174" s="15" t="s">
         <v>597</v>
       </c>
-      <c r="M174" s="18">
-        <v>2.8373637821847999E-3</v>
+      <c r="M174" s="16">
+        <v>3.9732916009135652E-7</v>
       </c>
       <c r="N174" s="15" t="s">
         <v>433</v>
@@ -13113,7 +13110,7 @@
       <c r="L175" s="13" t="s">
         <v>598</v>
       </c>
-      <c r="M175" s="17">
+      <c r="M175" s="14">
         <v>0</v>
       </c>
       <c r="N175" s="13" t="s">
@@ -13151,8 +13148,8 @@
       <c r="L176" s="15" t="s">
         <v>599</v>
       </c>
-      <c r="M176" s="18">
-        <v>2.4073396482908998E-3</v>
+      <c r="M176" s="16">
+        <v>0</v>
       </c>
       <c r="N176" s="15" t="s">
         <v>433</v>
@@ -13189,8 +13186,8 @@
       <c r="L177" s="13" t="s">
         <v>600</v>
       </c>
-      <c r="M177" s="17">
-        <v>5.1036606821807003E-3</v>
+      <c r="M177" s="14">
+        <v>8.6787066523130901E-7</v>
       </c>
       <c r="N177" s="13" t="s">
         <v>433</v>
@@ -13227,8 +13224,8 @@
       <c r="L178" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="M178" s="18">
-        <v>8.5469192124340999E-3</v>
+      <c r="M178" s="16">
+        <v>1.5476690808562951E-6</v>
       </c>
       <c r="N178" s="15" t="s">
         <v>433</v>
@@ -13265,8 +13262,8 @@
       <c r="L179" s="13" t="s">
         <v>602</v>
       </c>
-      <c r="M179" s="17">
-        <v>1.3877033073923E-2</v>
+      <c r="M179" s="14">
+        <v>2.4881534337196308E-6</v>
       </c>
       <c r="N179" s="13" t="s">
         <v>433</v>
@@ -13303,8 +13300,8 @@
       <c r="L180" s="15" t="s">
         <v>603</v>
       </c>
-      <c r="M180" s="18">
-        <v>2.2940520707362098E-2</v>
+      <c r="M180" s="16">
+        <v>4.3591273515163184E-6</v>
       </c>
       <c r="N180" s="15" t="s">
         <v>433</v>
@@ -13341,8 +13338,8 @@
       <c r="L181" s="13" t="s">
         <v>604</v>
       </c>
-      <c r="M181" s="17">
-        <v>5.8914923868801199E-2</v>
+      <c r="M181" s="14">
+        <v>1.12234028064835E-5</v>
       </c>
       <c r="N181" s="13" t="s">
         <v>433</v>
@@ -13379,8 +13376,8 @@
       <c r="L182" s="15" t="s">
         <v>605</v>
       </c>
-      <c r="M182" s="18">
-        <v>0.1009661008632016</v>
+      <c r="M182" s="16">
+        <v>1.9409521296319289E-5</v>
       </c>
       <c r="N182" s="15" t="s">
         <v>433</v>
@@ -13417,8 +13414,8 @@
       <c r="L183" s="13" t="s">
         <v>606</v>
       </c>
-      <c r="M183" s="17">
-        <v>0.1313731132022169</v>
+      <c r="M183" s="14">
+        <v>2.5609138627765637E-5</v>
       </c>
       <c r="N183" s="13" t="s">
         <v>433</v>
@@ -13455,8 +13452,8 @@
       <c r="L184" s="15" t="s">
         <v>607</v>
       </c>
-      <c r="M184" s="18">
-        <v>0.2046943071099899</v>
+      <c r="M184" s="16">
+        <v>3.9884539403636238E-5</v>
       </c>
       <c r="N184" s="15" t="s">
         <v>433</v>
@@ -13493,8 +13490,8 @@
       <c r="L185" s="13" t="s">
         <v>608</v>
       </c>
-      <c r="M185" s="17">
-        <v>0.26197276702377181</v>
+      <c r="M185" s="14">
+        <v>5.098927732567849E-5</v>
       </c>
       <c r="N185" s="13" t="s">
         <v>433</v>
@@ -13531,8 +13528,8 @@
       <c r="L186" s="15" t="s">
         <v>609</v>
       </c>
-      <c r="M186" s="18">
-        <v>0.29559255519149569</v>
+      <c r="M186" s="16">
+        <v>5.7709456204608845E-5</v>
       </c>
       <c r="N186" s="15" t="s">
         <v>433</v>
@@ -13569,8 +13566,8 @@
       <c r="L187" s="13" t="s">
         <v>610</v>
       </c>
-      <c r="M187" s="17">
-        <v>0.3570911199243309</v>
+      <c r="M187" s="14">
+        <v>6.9693836337872205E-5</v>
       </c>
       <c r="N187" s="13" t="s">
         <v>433</v>
@@ -13607,8 +13604,8 @@
       <c r="L188" s="15" t="s">
         <v>611</v>
       </c>
-      <c r="M188" s="18">
-        <v>0.42532571048710471</v>
+      <c r="M188" s="16">
+        <v>8.3176937312851105E-5</v>
       </c>
       <c r="N188" s="15" t="s">
         <v>433</v>
@@ -13645,8 +13642,8 @@
       <c r="L189" s="13" t="s">
         <v>612</v>
       </c>
-      <c r="M189" s="17">
-        <v>0.48112155680184759</v>
+      <c r="M189" s="14">
+        <v>9.3829009624227846E-5</v>
       </c>
       <c r="N189" s="13" t="s">
         <v>433</v>
@@ -13683,8 +13680,8 @@
       <c r="L190" s="15" t="s">
         <v>613</v>
       </c>
-      <c r="M190" s="18">
-        <v>0.50865262732073835</v>
+      <c r="M190" s="16">
+        <v>9.9509775781428679E-5</v>
       </c>
       <c r="N190" s="15" t="s">
         <v>433</v>
@@ -13721,8 +13718,8 @@
       <c r="L191" s="13" t="s">
         <v>614</v>
       </c>
-      <c r="M191" s="17">
-        <v>0.593281926255665</v>
+      <c r="M191" s="14">
+        <v>1.164072286483E-4</v>
       </c>
       <c r="N191" s="13" t="s">
         <v>433</v>
@@ -13759,8 +13756,8 @@
       <c r="L192" s="15" t="s">
         <v>615</v>
       </c>
-      <c r="M192" s="18">
-        <v>0.73302246229149615</v>
+      <c r="M192" s="16">
+        <v>1.454417001554E-4</v>
       </c>
       <c r="N192" s="15" t="s">
         <v>433</v>
@@ -13797,8 +13794,8 @@
       <c r="L193" s="13" t="s">
         <v>616</v>
       </c>
-      <c r="M193" s="17">
-        <v>0.86223487847383651</v>
+      <c r="M193" s="14">
+        <v>1.7478487873089999E-4</v>
       </c>
       <c r="N193" s="13" t="s">
         <v>433</v>
@@ -13835,8 +13832,8 @@
       <c r="L194" s="15" t="s">
         <v>617</v>
       </c>
-      <c r="M194" s="18">
-        <v>0.9383197440959834</v>
+      <c r="M194" s="16">
+        <v>1.9707087604919999E-4</v>
       </c>
       <c r="N194" s="15" t="s">
         <v>433</v>
@@ -13873,8 +13870,8 @@
       <c r="L195" s="13" t="s">
         <v>618</v>
       </c>
-      <c r="M195" s="17">
-        <v>314.98069036849489</v>
+      <c r="M195" s="14">
+        <v>6.5724240355904795E-2</v>
       </c>
       <c r="N195" s="13" t="s">
         <v>433</v>
@@ -13911,8 +13908,8 @@
       <c r="L196" s="15" t="s">
         <v>619</v>
       </c>
-      <c r="M196" s="18">
-        <v>43.268623800306933</v>
+      <c r="M196" s="16">
+        <v>9.0181758128231818E-3</v>
       </c>
       <c r="N196" s="15" t="s">
         <v>433</v>
@@ -13949,8 +13946,8 @@
       <c r="L197" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="M197" s="17">
-        <v>43.36200892271134</v>
+      <c r="M197" s="14">
+        <v>9.047887452717231E-3</v>
       </c>
       <c r="N197" s="13" t="s">
         <v>433</v>
@@ -13987,8 +13984,8 @@
       <c r="L198" s="15" t="s">
         <v>621</v>
       </c>
-      <c r="M198" s="18">
-        <v>43.941870132167018</v>
+      <c r="M198" s="16">
+        <v>9.189727977476329E-3</v>
       </c>
       <c r="N198" s="15" t="s">
         <v>433</v>
@@ -14025,8 +14022,8 @@
       <c r="L199" s="13" t="s">
         <v>622</v>
       </c>
-      <c r="M199" s="17">
-        <v>268.52634924870955</v>
+      <c r="M199" s="14">
+        <v>5.6023396077010866E-2</v>
       </c>
       <c r="N199" s="13" t="s">
         <v>433</v>
@@ -14063,8 +14060,8 @@
       <c r="L200" s="15" t="s">
         <v>623</v>
       </c>
-      <c r="M200" s="18">
-        <v>92.19487477006588</v>
+      <c r="M200" s="16">
+        <v>1.9067729664208822E-2</v>
       </c>
       <c r="N200" s="15" t="s">
         <v>433</v>
@@ -14101,8 +14098,8 @@
       <c r="L201" s="13" t="s">
         <v>624</v>
       </c>
-      <c r="M201" s="17">
-        <v>45.240208751338685</v>
+      <c r="M201" s="14">
+        <v>9.3748790121043913E-3</v>
       </c>
       <c r="N201" s="13" t="s">
         <v>433</v>
@@ -14139,8 +14136,8 @@
       <c r="L202" s="15" t="s">
         <v>625</v>
       </c>
-      <c r="M202" s="18">
-        <v>228.59778758589283</v>
+      <c r="M202" s="16">
+        <v>4.7581478639672783E-2</v>
       </c>
       <c r="N202" s="15" t="s">
         <v>433</v>
@@ -14177,8 +14174,8 @@
       <c r="L203" s="13" t="s">
         <v>626</v>
       </c>
-      <c r="M203" s="17">
-        <v>247.12766700802726</v>
+      <c r="M203" s="14">
+        <v>5.0914177778469551E-2</v>
       </c>
       <c r="N203" s="13" t="s">
         <v>433</v>
@@ -14215,8 +14212,8 @@
       <c r="L204" s="15" t="s">
         <v>627</v>
       </c>
-      <c r="M204" s="18">
-        <v>34.217575534918673</v>
+      <c r="M204" s="16">
+        <v>6.9864093416431277E-3</v>
       </c>
       <c r="N204" s="15" t="s">
         <v>433</v>
@@ -14253,8 +14250,8 @@
       <c r="L205" s="13" t="s">
         <v>628</v>
       </c>
-      <c r="M205" s="17">
-        <v>35.026594954223754</v>
+      <c r="M205" s="14">
+        <v>7.1535854231870788E-3</v>
       </c>
       <c r="N205" s="13" t="s">
         <v>433</v>
@@ -14291,8 +14288,8 @@
       <c r="L206" s="15" t="s">
         <v>629</v>
       </c>
-      <c r="M206" s="18">
-        <v>35.838933627660225</v>
+      <c r="M206" s="16">
+        <v>7.3433717912017088E-3</v>
       </c>
       <c r="N206" s="15" t="s">
         <v>433</v>
@@ -14329,8 +14326,8 @@
       <c r="L207" s="13" t="s">
         <v>630</v>
       </c>
-      <c r="M207" s="17">
-        <v>224.34149899300473</v>
+      <c r="M207" s="14">
+        <v>4.5807737642621707E-2</v>
       </c>
       <c r="N207" s="13" t="s">
         <v>433</v>
@@ -14367,8 +14364,8 @@
       <c r="L208" s="15" t="s">
         <v>631</v>
       </c>
-      <c r="M208" s="18">
-        <v>77.850725227547528</v>
+      <c r="M208" s="16">
+        <v>1.6040735181819282E-2</v>
       </c>
       <c r="N208" s="15" t="s">
         <v>433</v>
@@ -14405,8 +14402,8 @@
       <c r="L209" s="13" t="s">
         <v>632</v>
       </c>
-      <c r="M209" s="17">
-        <v>38.658922237918532</v>
+      <c r="M209" s="14">
+        <v>7.9459124197177097E-3</v>
       </c>
       <c r="N209" s="13" t="s">
         <v>433</v>
@@ -14443,8 +14440,8 @@
       <c r="L210" s="15" t="s">
         <v>633</v>
       </c>
-      <c r="M210" s="18">
-        <v>188.24334910855828</v>
+      <c r="M210" s="16">
+        <v>3.8608133260789011E-2</v>
       </c>
       <c r="N210" s="15" t="s">
         <v>433</v>
@@ -14481,8 +14478,8 @@
       <c r="L211" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="M211" s="17">
-        <v>253.01297624122071</v>
+      <c r="M211" s="14">
+        <v>5.3696330086524829E-2</v>
       </c>
       <c r="N211" s="13" t="s">
         <v>433</v>
@@ -14519,8 +14516,8 @@
       <c r="L212" s="15" t="s">
         <v>635</v>
       </c>
-      <c r="M212" s="18">
-        <v>35.21997714517736</v>
+      <c r="M212" s="16">
+        <v>7.4872393085671281E-3</v>
       </c>
       <c r="N212" s="15" t="s">
         <v>433</v>
@@ -14557,8 +14554,8 @@
       <c r="L213" s="13" t="s">
         <v>636</v>
       </c>
-      <c r="M213" s="17">
-        <v>35.59224594824385</v>
+      <c r="M213" s="14">
+        <v>7.5615468003261653E-3</v>
       </c>
       <c r="N213" s="13" t="s">
         <v>433</v>
@@ -14595,8 +14592,8 @@
       <c r="L214" s="15" t="s">
         <v>637</v>
       </c>
-      <c r="M214" s="18">
-        <v>35.645345659743789</v>
+      <c r="M214" s="16">
+        <v>7.5821329262707243E-3</v>
       </c>
       <c r="N214" s="15" t="s">
         <v>433</v>
@@ -14633,8 +14630,8 @@
       <c r="L215" s="13" t="s">
         <v>638</v>
       </c>
-      <c r="M215" s="17">
-        <v>203.96556175043244</v>
+      <c r="M215" s="14">
+        <v>4.3391106685768274E-2</v>
       </c>
       <c r="N215" s="13" t="s">
         <v>433</v>
@@ -14671,8 +14668,8 @@
       <c r="L216" s="15" t="s">
         <v>639</v>
       </c>
-      <c r="M216" s="18">
-        <v>71.347051332772878</v>
+      <c r="M216" s="16">
+        <v>1.5156143425926675E-2</v>
       </c>
       <c r="N216" s="15" t="s">
         <v>433</v>
@@ -14709,8 +14706,8 @@
       <c r="L217" s="13" t="s">
         <v>640</v>
       </c>
-      <c r="M217" s="17">
-        <v>36.169697155669752</v>
+      <c r="M217" s="14">
+        <v>7.6395962058887091E-3</v>
       </c>
       <c r="N217" s="13" t="s">
         <v>433</v>
@@ -14747,8 +14744,8 @@
       <c r="L218" s="15" t="s">
         <v>641</v>
       </c>
-      <c r="M218" s="18">
-        <v>180.58313497710446</v>
+      <c r="M218" s="16">
+        <v>3.8215796169207401E-2</v>
       </c>
       <c r="N218" s="15" t="s">
         <v>433</v>
@@ -14785,8 +14782,8 @@
       <c r="L219" s="13" t="s">
         <v>642</v>
       </c>
-      <c r="M219" s="17">
-        <v>0.99998701480050278</v>
+      <c r="M219" s="14">
+        <v>2.2192904935319999E-4</v>
       </c>
       <c r="N219" s="13" t="s">
         <v>433</v>
@@ -14823,8 +14820,8 @@
       <c r="L220" s="15" t="s">
         <v>643</v>
       </c>
-      <c r="M220" s="18">
-        <v>0.99998333198240641</v>
+      <c r="M220" s="16">
+        <v>2.2193819440469999E-4</v>
       </c>
       <c r="N220" s="15" t="s">
         <v>433</v>
@@ -14861,8 +14858,8 @@
       <c r="L221" s="13" t="s">
         <v>644</v>
       </c>
-      <c r="M221" s="17">
-        <v>0.99994607706903105</v>
+      <c r="M221" s="14">
+        <v>2.2190033124E-4</v>
       </c>
       <c r="N221" s="13" t="s">
         <v>433</v>
@@ -14899,8 +14896,8 @@
       <c r="L222" s="15" t="s">
         <v>645</v>
       </c>
-      <c r="M222" s="18">
-        <v>0.99993422905987817</v>
+      <c r="M222" s="16">
+        <v>2.2185434343919999E-4</v>
       </c>
       <c r="N222" s="15" t="s">
         <v>433</v>
@@ -14937,8 +14934,8 @@
       <c r="L223" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="M223" s="17">
-        <v>0.9998792256863388</v>
+      <c r="M223" s="14">
+        <v>2.217713388865E-4</v>
       </c>
       <c r="N223" s="13" t="s">
         <v>433</v>
@@ -14975,8 +14972,8 @@
       <c r="L224" s="15" t="s">
         <v>647</v>
       </c>
-      <c r="M224" s="18">
-        <v>0.99984658682453764</v>
+      <c r="M224" s="16">
+        <v>2.2169409556960001E-4</v>
       </c>
       <c r="N224" s="15" t="s">
         <v>433</v>
@@ -15013,8 +15010,8 @@
       <c r="L225" s="13" t="s">
         <v>648</v>
       </c>
-      <c r="M225" s="17">
-        <v>0.99915165613130041</v>
+      <c r="M225" s="14">
+        <v>2.214540819429E-4</v>
       </c>
       <c r="N225" s="13" t="s">
         <v>433</v>
@@ -15051,8 +15048,8 @@
       <c r="L226" s="15" t="s">
         <v>649</v>
       </c>
-      <c r="M226" s="18">
-        <v>0.99873980374363835</v>
+      <c r="M226" s="16">
+        <v>2.2128612631539999E-4</v>
       </c>
       <c r="N226" s="15" t="s">
         <v>433</v>
@@ -15089,8 +15086,8 @@
       <c r="L227" s="13" t="s">
         <v>650</v>
       </c>
-      <c r="M227" s="17">
-        <v>0.99850813579378661</v>
+      <c r="M227" s="14">
+        <v>2.212091259065E-4</v>
       </c>
       <c r="N227" s="13" t="s">
         <v>433</v>
@@ -15127,8 +15124,8 @@
       <c r="L228" s="15" t="s">
         <v>651</v>
       </c>
-      <c r="M228" s="18">
-        <v>0.93115955141837037</v>
+      <c r="M228" s="16">
+        <v>2.049579542363E-4</v>
       </c>
       <c r="N228" s="15" t="s">
         <v>433</v>
@@ -15165,8 +15162,8 @@
       <c r="L229" s="13" t="s">
         <v>652</v>
       </c>
-      <c r="M229" s="17">
-        <v>0.83414290307555028</v>
+      <c r="M229" s="14">
+        <v>1.7719044351949999E-4</v>
       </c>
       <c r="N229" s="13" t="s">
         <v>433</v>
@@ -15203,8 +15200,8 @@
       <c r="L230" s="15" t="s">
         <v>653</v>
       </c>
-      <c r="M230" s="18">
-        <v>0.60755283666814541</v>
+      <c r="M230" s="16">
+        <v>1.2492744756720001E-4</v>
       </c>
       <c r="N230" s="15" t="s">
         <v>433</v>
@@ -15241,8 +15238,8 @@
       <c r="L231" s="13" t="s">
         <v>654</v>
       </c>
-      <c r="M231" s="17">
-        <v>0.3308723855161399</v>
+      <c r="M231" s="14">
+        <v>6.4434857700214197E-5</v>
       </c>
       <c r="N231" s="13" t="s">
         <v>433</v>
@@ -15279,8 +15276,8 @@
       <c r="L232" s="15" t="s">
         <v>655</v>
       </c>
-      <c r="M232" s="18">
-        <v>0.2244199493818845</v>
+      <c r="M232" s="16">
+        <v>4.3916582345023851E-5</v>
       </c>
       <c r="N232" s="15" t="s">
         <v>433</v>
@@ -15317,8 +15314,8 @@
       <c r="L233" s="13" t="s">
         <v>656</v>
       </c>
-      <c r="M233" s="17">
-        <v>0.21043139533127769</v>
+      <c r="M233" s="14">
+        <v>4.1449757209819859E-5</v>
       </c>
       <c r="N233" s="13" t="s">
         <v>433</v>
@@ -15355,8 +15352,8 @@
       <c r="L234" s="15" t="s">
         <v>657</v>
       </c>
-      <c r="M234" s="18">
-        <v>0.31506449144239551</v>
+      <c r="M234" s="16">
+        <v>6.1853300776847336E-5</v>
       </c>
       <c r="N234" s="15" t="s">
         <v>433</v>
@@ -15393,8 +15390,8 @@
       <c r="L235" s="13" t="s">
         <v>658</v>
       </c>
-      <c r="M235" s="17">
-        <v>0.45579960666029001</v>
+      <c r="M235" s="14">
+        <v>8.9790272419360459E-5</v>
       </c>
       <c r="N235" s="13" t="s">
         <v>433</v>
@@ -15431,8 +15428,8 @@
       <c r="L236" s="15" t="s">
         <v>659</v>
       </c>
-      <c r="M236" s="18">
-        <v>0.50035985210408385</v>
+      <c r="M236" s="16">
+        <v>9.816914362284524E-5</v>
       </c>
       <c r="N236" s="15" t="s">
         <v>433</v>
@@ -15469,8 +15466,8 @@
       <c r="L237" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="M237" s="17">
-        <v>0.49987418008586232</v>
+      <c r="M237" s="14">
+        <v>9.8249744761763099E-5</v>
       </c>
       <c r="N237" s="13" t="s">
         <v>433</v>
@@ -15507,8 +15504,8 @@
       <c r="L238" s="15" t="s">
         <v>661</v>
       </c>
-      <c r="M238" s="18">
-        <v>0.66371610932592862</v>
+      <c r="M238" s="16">
+        <v>1.3215161157059999E-4</v>
       </c>
       <c r="N238" s="15" t="s">
         <v>433</v>
@@ -15545,8 +15542,8 @@
       <c r="L239" s="13" t="s">
         <v>662</v>
       </c>
-      <c r="M239" s="17">
-        <v>0.88824033092265064</v>
+      <c r="M239" s="14">
+        <v>1.7903083112009999E-4</v>
       </c>
       <c r="N239" s="13" t="s">
         <v>433</v>
@@ -15583,8 +15580,8 @@
       <c r="L240" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="M240" s="18">
-        <v>0.92679138455683918</v>
+      <c r="M240" s="16">
+        <v>1.8815860665810001E-4</v>
       </c>
       <c r="N240" s="15" t="s">
         <v>433</v>
@@ -15621,8 +15618,8 @@
       <c r="L241" s="13" t="s">
         <v>664</v>
       </c>
-      <c r="M241" s="17">
-        <v>0.94641015175862619</v>
+      <c r="M241" s="14">
+        <v>1.9509465451770001E-4</v>
       </c>
       <c r="N241" s="13" t="s">
         <v>433</v>
@@ -15659,8 +15656,8 @@
       <c r="L242" s="15" t="s">
         <v>665</v>
       </c>
-      <c r="M242" s="18">
-        <v>0.94512412538408719</v>
+      <c r="M242" s="16">
+        <v>1.9547140786780001E-4</v>
       </c>
       <c r="N242" s="15" t="s">
         <v>433</v>
@@ -15697,8 +15694,8 @@
       <c r="L243" s="13" t="s">
         <v>666</v>
       </c>
-      <c r="M243" s="17">
-        <v>0.97378436337015239</v>
+      <c r="M243" s="14">
+        <v>2.0793568104749999E-4</v>
       </c>
       <c r="N243" s="13" t="s">
         <v>433</v>
@@ -15735,8 +15732,8 @@
       <c r="L244" s="15" t="s">
         <v>667</v>
       </c>
-      <c r="M244" s="18">
-        <v>0.95276433515439818</v>
+      <c r="M244" s="16">
+        <v>1.976653425887E-4</v>
       </c>
       <c r="N244" s="15" t="s">
         <v>433</v>
@@ -15773,8 +15770,8 @@
       <c r="L245" s="13" t="s">
         <v>668</v>
       </c>
-      <c r="M245" s="17">
-        <v>0.98080449852976959</v>
+      <c r="M245" s="14">
+        <v>2.132798203561E-4</v>
       </c>
       <c r="N245" s="13" t="s">
         <v>433</v>
@@ -15811,8 +15808,8 @@
       <c r="L246" s="15" t="s">
         <v>669</v>
       </c>
-      <c r="M246" s="18">
-        <v>0.98292549371060745</v>
+      <c r="M246" s="16">
+        <v>2.136819851297E-4</v>
       </c>
       <c r="N246" s="15" t="s">
         <v>433</v>
@@ -15849,8 +15846,8 @@
       <c r="L247" s="13" t="s">
         <v>670</v>
       </c>
-      <c r="M247" s="17">
-        <v>0.98068995377580781</v>
+      <c r="M247" s="14">
+        <v>2.118408146325E-4</v>
       </c>
       <c r="N247" s="13" t="s">
         <v>433</v>
@@ -15887,8 +15884,8 @@
       <c r="L248" s="15" t="s">
         <v>671</v>
       </c>
-      <c r="M248" s="18">
-        <v>0.96931439352533</v>
+      <c r="M248" s="16">
+        <v>2.0629008653300001E-4</v>
       </c>
       <c r="N248" s="15" t="s">
         <v>433</v>
@@ -15925,8 +15922,8 @@
       <c r="L249" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="M249" s="17">
-        <v>0.91776591889529502</v>
+      <c r="M249" s="14">
+        <v>1.8834914751369999E-4</v>
       </c>
       <c r="N249" s="13" t="s">
         <v>433</v>
@@ -15963,8 +15960,8 @@
       <c r="L250" s="15" t="s">
         <v>673</v>
       </c>
-      <c r="M250" s="18">
-        <v>0.86869024173385267</v>
+      <c r="M250" s="16">
+        <v>1.7594178319060001E-4</v>
       </c>
       <c r="N250" s="15" t="s">
         <v>433</v>
@@ -16001,8 +15998,8 @@
       <c r="L251" s="13" t="s">
         <v>674</v>
       </c>
-      <c r="M251" s="17">
-        <v>0.81550420873471885</v>
+      <c r="M251" s="14">
+        <v>1.6295541394959999E-4</v>
       </c>
       <c r="N251" s="13" t="s">
         <v>433</v>
@@ -16039,8 +16036,8 @@
       <c r="L252" s="15" t="s">
         <v>675</v>
       </c>
-      <c r="M252" s="18">
-        <v>0.73213997250875429</v>
+      <c r="M252" s="16">
+        <v>1.4450598746580001E-4</v>
       </c>
       <c r="N252" s="15" t="s">
         <v>433</v>
@@ -16077,8 +16074,8 @@
       <c r="L253" s="13" t="s">
         <v>676</v>
       </c>
-      <c r="M253" s="17">
-        <v>0.5658748575733773</v>
+      <c r="M253" s="14">
+        <v>1.113666340849E-4</v>
       </c>
       <c r="N253" s="13" t="s">
         <v>433</v>
@@ -16115,8 +16112,8 @@
       <c r="L254" s="15" t="s">
         <v>677</v>
       </c>
-      <c r="M254" s="18">
-        <v>0.50972769818999053</v>
+      <c r="M254" s="16">
+        <v>9.9675030379130686E-5</v>
       </c>
       <c r="N254" s="15" t="s">
         <v>433</v>
@@ -16153,8 +16150,8 @@
       <c r="L255" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="M255" s="17">
-        <v>0.65362184682911151</v>
+      <c r="M255" s="14">
+        <v>1.275458260767E-4</v>
       </c>
       <c r="N255" s="13" t="s">
         <v>433</v>
@@ -16191,8 +16188,8 @@
       <c r="L256" s="15" t="s">
         <v>679</v>
       </c>
-      <c r="M256" s="18">
-        <v>0.72787032798703821</v>
+      <c r="M256" s="16">
+        <v>1.4306226032089999E-4</v>
       </c>
       <c r="N256" s="15" t="s">
         <v>433</v>
@@ -16229,8 +16226,8 @@
       <c r="L257" s="13" t="s">
         <v>680</v>
       </c>
-      <c r="M257" s="17">
-        <v>0.74143996363801568</v>
+      <c r="M257" s="14">
+        <v>1.4610999554379999E-4</v>
       </c>
       <c r="N257" s="13" t="s">
         <v>433</v>
@@ -16267,8 +16264,8 @@
       <c r="L258" s="15" t="s">
         <v>681</v>
       </c>
-      <c r="M258" s="18">
-        <v>0.69027635528819276</v>
+      <c r="M258" s="16">
+        <v>1.3511586615669999E-4</v>
       </c>
       <c r="N258" s="15" t="s">
         <v>433</v>
@@ -16305,8 +16302,8 @@
       <c r="L259" s="13" t="s">
         <v>682</v>
       </c>
-      <c r="M259" s="17">
-        <v>0.60083814530030644</v>
+      <c r="M259" s="14">
+        <v>1.176591689938E-4</v>
       </c>
       <c r="N259" s="13" t="s">
         <v>433</v>
@@ -16343,8 +16340,8 @@
       <c r="L260" s="15" t="s">
         <v>683</v>
       </c>
-      <c r="M260" s="18">
-        <v>0.53588050807271304</v>
+      <c r="M260" s="16">
+        <v>1.0500282943899999E-4</v>
       </c>
       <c r="N260" s="15" t="s">
         <v>433</v>
@@ -16381,8 +16378,8 @@
       <c r="L261" s="13" t="s">
         <v>684</v>
       </c>
-      <c r="M261" s="17">
-        <v>0.49670059123820098</v>
+      <c r="M261" s="14">
+        <v>9.7532469676939906E-5</v>
       </c>
       <c r="N261" s="13" t="s">
         <v>433</v>
@@ -16419,8 +16416,8 @@
       <c r="L262" s="15" t="s">
         <v>685</v>
       </c>
-      <c r="M262" s="18">
-        <v>0.46515384098248891</v>
+      <c r="M262" s="16">
+        <v>9.1195254957791394E-5</v>
       </c>
       <c r="N262" s="15" t="s">
         <v>433</v>
@@ -16457,8 +16454,8 @@
       <c r="L263" s="13" t="s">
         <v>686</v>
       </c>
-      <c r="M263" s="17">
-        <v>0.3899825884272709</v>
+      <c r="M263" s="14">
+        <v>7.7029624617301021E-5</v>
       </c>
       <c r="N263" s="13" t="s">
         <v>433</v>
@@ -16495,8 +16492,8 @@
       <c r="L264" s="15" t="s">
         <v>687</v>
       </c>
-      <c r="M264" s="18">
-        <v>0.42237067674574919</v>
+      <c r="M264" s="16">
+        <v>8.3018294864596793E-5</v>
       </c>
       <c r="N264" s="15" t="s">
         <v>433</v>
@@ -16533,8 +16530,8 @@
       <c r="L265" s="13" t="s">
         <v>688</v>
       </c>
-      <c r="M265" s="17">
-        <v>0.66157166652036448</v>
+      <c r="M265" s="14">
+        <v>1.3015409890559999E-4</v>
       </c>
       <c r="N265" s="13" t="s">
         <v>433</v>
@@ -16571,8 +16568,8 @@
       <c r="L266" s="15" t="s">
         <v>689</v>
       </c>
-      <c r="M266" s="18">
-        <v>0.84359778493230142</v>
+      <c r="M266" s="16">
+        <v>1.6937838474690001E-4</v>
       </c>
       <c r="N266" s="15" t="s">
         <v>433</v>
@@ -16609,8 +16606,8 @@
       <c r="L267" s="13" t="s">
         <v>690</v>
       </c>
-      <c r="M267" s="17">
-        <v>0.96445175549748963</v>
+      <c r="M267" s="14">
+        <v>2.0338388278960001E-4</v>
       </c>
       <c r="N267" s="13" t="s">
         <v>433</v>
@@ -16647,8 +16644,8 @@
       <c r="L268" s="15" t="s">
         <v>691</v>
       </c>
-      <c r="M268" s="18">
-        <v>0.99146434613647016</v>
+      <c r="M268" s="16">
+        <v>2.1270801111770001E-4</v>
       </c>
       <c r="N268" s="15" t="s">
         <v>433</v>
@@ -16685,8 +16682,8 @@
       <c r="L269" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="M269" s="17">
-        <v>0.99730843922066803</v>
+      <c r="M269" s="14">
+        <v>2.20617972374E-4</v>
       </c>
       <c r="N269" s="13" t="s">
         <v>433</v>
@@ -16723,8 +16720,8 @@
       <c r="L270" s="15" t="s">
         <v>693</v>
       </c>
-      <c r="M270" s="18">
-        <v>0.99868081584391222</v>
+      <c r="M270" s="16">
+        <v>2.2134559861010001E-4</v>
       </c>
       <c r="N270" s="15" t="s">
         <v>433</v>
@@ -16761,8 +16758,8 @@
       <c r="L271" s="13" t="s">
         <v>694</v>
       </c>
-      <c r="M271" s="17">
-        <v>0.99941925022452383</v>
+      <c r="M271" s="14">
+        <v>2.2157859882660001E-4</v>
       </c>
       <c r="N271" s="13" t="s">
         <v>433</v>
@@ -16799,8 +16796,8 @@
       <c r="L272" s="15" t="s">
         <v>695</v>
       </c>
-      <c r="M272" s="18">
-        <v>0.99909165003889677</v>
+      <c r="M272" s="16">
+        <v>2.2147929856239999E-4</v>
       </c>
       <c r="N272" s="15" t="s">
         <v>433</v>
@@ -16837,8 +16834,8 @@
       <c r="L273" s="13" t="s">
         <v>696</v>
       </c>
-      <c r="M273" s="17">
-        <v>0.9985831691599788</v>
+      <c r="M273" s="14">
+        <v>2.2126193701809999E-4</v>
       </c>
       <c r="N273" s="13" t="s">
         <v>433</v>
@@ -16875,8 +16872,8 @@
       <c r="L274" s="15" t="s">
         <v>697</v>
       </c>
-      <c r="M274" s="18">
-        <v>0.99830247954958384</v>
+      <c r="M274" s="16">
+        <v>2.2115306528809999E-4</v>
       </c>
       <c r="N274" s="15" t="s">
         <v>433</v>
@@ -16913,8 +16910,8 @@
       <c r="L275" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="M275" s="17">
-        <v>0.99791915178964463</v>
+      <c r="M275" s="14">
+        <v>2.2099427665979999E-4</v>
       </c>
       <c r="N275" s="13" t="s">
         <v>433</v>
@@ -16951,8 +16948,8 @@
       <c r="L276" s="15" t="s">
         <v>699</v>
       </c>
-      <c r="M276" s="18">
-        <v>0.99685373669431365</v>
+      <c r="M276" s="16">
+        <v>2.2074857125840001E-4</v>
       </c>
       <c r="N276" s="15" t="s">
         <v>433</v>
@@ -16989,8 +16986,8 @@
       <c r="L277" s="13" t="s">
         <v>700</v>
       </c>
-      <c r="M277" s="17">
-        <v>0.99811498736440496</v>
+      <c r="M277" s="14">
+        <v>2.2111120400410001E-4</v>
       </c>
       <c r="N277" s="13" t="s">
         <v>433</v>
@@ -17027,8 +17024,8 @@
       <c r="L278" s="15" t="s">
         <v>701</v>
       </c>
-      <c r="M278" s="18">
-        <v>0.99410982152640015</v>
+      <c r="M278" s="16">
+        <v>2.202210886126E-4</v>
       </c>
       <c r="N278" s="15" t="s">
         <v>433</v>
@@ -17065,8 +17062,8 @@
       <c r="L279" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="M279" s="17">
-        <v>0.99047625095413316</v>
+      <c r="M279" s="14">
+        <v>2.1854401007719999E-4</v>
       </c>
       <c r="N279" s="13" t="s">
         <v>433</v>
@@ -17103,8 +17100,8 @@
       <c r="L280" s="15" t="s">
         <v>703</v>
       </c>
-      <c r="M280" s="18">
-        <v>0.98935216688530825</v>
+      <c r="M280" s="16">
+        <v>2.1555654915289999E-4</v>
       </c>
       <c r="N280" s="15" t="s">
         <v>433</v>
@@ -17141,8 +17138,8 @@
       <c r="L281" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="M281" s="17">
-        <v>0.96962693080026163</v>
+      <c r="M281" s="14">
+        <v>2.0553852485929999E-4</v>
       </c>
       <c r="N281" s="13" t="s">
         <v>433</v>
@@ -17179,8 +17176,8 @@
       <c r="L282" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="M282" s="18">
-        <v>0.91875384734789922</v>
+      <c r="M282" s="16">
+        <v>1.908056300961E-4</v>
       </c>
       <c r="N282" s="15" t="s">
         <v>433</v>
@@ -17217,8 +17214,8 @@
       <c r="L283" s="13" t="s">
         <v>706</v>
       </c>
-      <c r="M283" s="17">
-        <v>0.78728267131964824</v>
+      <c r="M283" s="14">
+        <v>1.5362855279499999E-4</v>
       </c>
       <c r="N283" s="13" t="s">
         <v>433</v>
@@ -17255,8 +17252,8 @@
       <c r="L284" s="15" t="s">
         <v>707</v>
       </c>
-      <c r="M284" s="18">
-        <v>0.54848181783049199</v>
+      <c r="M284" s="16">
+        <v>1.066433170812E-4</v>
       </c>
       <c r="N284" s="15" t="s">
         <v>433</v>
@@ -17293,8 +17290,8 @@
       <c r="L285" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="M285" s="17">
-        <v>0.3449858572929283</v>
+      <c r="M285" s="14">
+        <v>6.6927953285493395E-5</v>
       </c>
       <c r="N285" s="13" t="s">
         <v>433</v>
@@ -17331,8 +17328,8 @@
       <c r="L286" s="15" t="s">
         <v>709</v>
       </c>
-      <c r="M286" s="18">
-        <v>0.19263735969677609</v>
+      <c r="M286" s="16">
+        <v>3.7094378653322728E-5</v>
       </c>
       <c r="N286" s="15" t="s">
         <v>433</v>
@@ -17369,8 +17366,8 @@
       <c r="L287" s="13" t="s">
         <v>710</v>
       </c>
-      <c r="M287" s="17">
-        <v>0.13075356902390239</v>
+      <c r="M287" s="14">
+        <v>2.5292531769460352E-5</v>
       </c>
       <c r="N287" s="13" t="s">
         <v>433</v>
@@ -17407,8 +17404,8 @@
       <c r="L288" s="15" t="s">
         <v>711</v>
       </c>
-      <c r="M288" s="18">
-        <v>9.8505227277777704E-2</v>
+      <c r="M288" s="16">
+        <v>1.8771660981023652E-5</v>
       </c>
       <c r="N288" s="15" t="s">
         <v>433</v>
@@ -17445,8 +17442,8 @@
       <c r="L289" s="13" t="s">
         <v>712</v>
       </c>
-      <c r="M289" s="17">
-        <v>3.9762679390415702E-2</v>
+      <c r="M289" s="14">
+        <v>7.6119897333374995E-6</v>
       </c>
       <c r="N289" s="13" t="s">
         <v>433</v>
@@ -17483,8 +17480,8 @@
       <c r="L290" s="15" t="s">
         <v>713</v>
       </c>
-      <c r="M290" s="18">
-        <v>4.3574814723133001E-2</v>
+      <c r="M290" s="16">
+        <v>8.4083627700072439E-6</v>
       </c>
       <c r="N290" s="15" t="s">
         <v>433</v>
@@ -17521,8 +17518,8 @@
       <c r="L291" s="13" t="s">
         <v>714</v>
       </c>
-      <c r="M291" s="17">
-        <v>4.7311053326142397E-2</v>
+      <c r="M291" s="14">
+        <v>9.4737183401107162E-6</v>
       </c>
       <c r="N291" s="13" t="s">
         <v>433</v>
@@ -17559,8 +17556,8 @@
       <c r="L292" s="15" t="s">
         <v>715</v>
       </c>
-      <c r="M292" s="18">
-        <v>3.3102572608295702E-2</v>
+      <c r="M292" s="16">
+        <v>6.5560382631807483E-6</v>
       </c>
       <c r="N292" s="15" t="s">
         <v>433</v>
@@ -17597,8 +17594,8 @@
       <c r="L293" s="13" t="s">
         <v>716</v>
       </c>
-      <c r="M293" s="17">
-        <v>2.7938955511491202E-2</v>
+      <c r="M293" s="14">
+        <v>5.543294482015992E-6</v>
       </c>
       <c r="N293" s="13" t="s">
         <v>433</v>
@@ -17635,8 +17632,8 @@
       <c r="L294" s="15" t="s">
         <v>717</v>
       </c>
-      <c r="M294" s="18">
-        <v>3.8081172627368098E-2</v>
+      <c r="M294" s="16">
+        <v>7.4975253074991008E-6</v>
       </c>
       <c r="N294" s="15" t="s">
         <v>433</v>
@@ -17673,8 +17670,8 @@
       <c r="L295" s="13" t="s">
         <v>718</v>
       </c>
-      <c r="M295" s="17">
-        <v>2.61607678451093E-2</v>
+      <c r="M295" s="14">
+        <v>5.158409072377279E-6</v>
       </c>
       <c r="N295" s="13" t="s">
         <v>433</v>
@@ -17711,8 +17708,8 @@
       <c r="L296" s="15" t="s">
         <v>719</v>
       </c>
-      <c r="M296" s="18">
-        <v>1.2412720805935799E-2</v>
+      <c r="M296" s="16">
+        <v>2.3773175590506923E-6</v>
       </c>
       <c r="N296" s="15" t="s">
         <v>433</v>
@@ -17749,8 +17746,8 @@
       <c r="L297" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="M297" s="17">
-        <v>1.0204259478045799E-2</v>
+      <c r="M297" s="14">
+        <v>1.972301503911018E-6</v>
       </c>
       <c r="N297" s="13" t="s">
         <v>433</v>
@@ -17787,8 +17784,8 @@
       <c r="L298" s="15" t="s">
         <v>721</v>
       </c>
-      <c r="M298" s="18">
-        <v>1.0070612713828199E-2</v>
+      <c r="M298" s="16">
+        <v>1.4827246858263805E-6</v>
       </c>
       <c r="N298" s="15" t="s">
         <v>433</v>
@@ -17825,8 +17822,8 @@
       <c r="L299" s="13" t="s">
         <v>722</v>
       </c>
-      <c r="M299" s="17">
-        <v>8.0053282738898005E-3</v>
+      <c r="M299" s="14">
+        <v>1.5761152777961791E-6</v>
       </c>
       <c r="N299" s="13" t="s">
         <v>433</v>
@@ -17863,8 +17860,8 @@
       <c r="L300" s="15" t="s">
         <v>723</v>
       </c>
-      <c r="M300" s="18">
-        <v>9.9091948508481E-3</v>
+      <c r="M300" s="16">
+        <v>1.983607764077557E-6</v>
       </c>
       <c r="N300" s="15" t="s">
         <v>433</v>
@@ -17901,8 +17898,8 @@
       <c r="L301" s="13" t="s">
         <v>724</v>
       </c>
-      <c r="M301" s="17">
-        <v>1.10215830869987E-2</v>
+      <c r="M301" s="14">
+        <v>2.013037190796726E-6</v>
       </c>
       <c r="N301" s="13" t="s">
         <v>433</v>
@@ -17939,8 +17936,8 @@
       <c r="L302" s="15" t="s">
         <v>725</v>
       </c>
-      <c r="M302" s="18">
-        <v>2.9577534579555299E-2</v>
+      <c r="M302" s="16">
+        <v>5.6921670416468186E-6</v>
       </c>
       <c r="N302" s="15" t="s">
         <v>433</v>
@@ -17977,8 +17974,8 @@
       <c r="L303" s="13" t="s">
         <v>726</v>
       </c>
-      <c r="M303" s="17">
-        <v>6.5922626989621605E-2</v>
+      <c r="M303" s="14">
+        <v>1.2719467913064262E-5</v>
       </c>
       <c r="N303" s="13" t="s">
         <v>433</v>
@@ -18015,8 +18012,8 @@
       <c r="L304" s="15" t="s">
         <v>727</v>
       </c>
-      <c r="M304" s="18">
-        <v>7.3435692829184399E-2</v>
+      <c r="M304" s="16">
+        <v>1.4241278222061497E-5</v>
       </c>
       <c r="N304" s="15" t="s">
         <v>433</v>
@@ -18053,8 +18050,8 @@
       <c r="L305" s="13" t="s">
         <v>728</v>
       </c>
-      <c r="M305" s="17">
-        <v>3.44373748003695E-2</v>
+      <c r="M305" s="14">
+        <v>6.6250973198352368E-6</v>
       </c>
       <c r="N305" s="13" t="s">
         <v>433</v>
@@ -18091,8 +18088,8 @@
       <c r="L306" s="15" t="s">
         <v>729</v>
       </c>
-      <c r="M306" s="18">
-        <v>7.2892274271785004E-2</v>
+      <c r="M306" s="16">
+        <v>1.4135402252454342E-5</v>
       </c>
       <c r="N306" s="15" t="s">
         <v>433</v>
@@ -18129,8 +18126,8 @@
       <c r="L307" s="13" t="s">
         <v>730</v>
       </c>
-      <c r="M307" s="17">
-        <v>8.1614010336493806E-2</v>
+      <c r="M307" s="14">
+        <v>1.5892705852307918E-5</v>
       </c>
       <c r="N307" s="13" t="s">
         <v>433</v>
@@ -18167,8 +18164,8 @@
       <c r="L308" s="15" t="s">
         <v>731</v>
       </c>
-      <c r="M308" s="18">
-        <v>0.12889238325555821</v>
+      <c r="M308" s="16">
+        <v>2.5141509608241787E-5</v>
       </c>
       <c r="N308" s="15" t="s">
         <v>433</v>
@@ -18205,8 +18202,8 @@
       <c r="L309" s="13" t="s">
         <v>732</v>
       </c>
-      <c r="M309" s="17">
-        <v>0.22091201925899309</v>
+      <c r="M309" s="14">
+        <v>4.3390369476811589E-5</v>
       </c>
       <c r="N309" s="13" t="s">
         <v>433</v>
@@ -18243,8 +18240,8 @@
       <c r="L310" s="15" t="s">
         <v>733</v>
       </c>
-      <c r="M310" s="18">
-        <v>0.32114279331151679</v>
+      <c r="M310" s="16">
+        <v>6.2705637431624062E-5</v>
       </c>
       <c r="N310" s="15" t="s">
         <v>433</v>
@@ -18281,8 +18278,8 @@
       <c r="L311" s="13" t="s">
         <v>734</v>
       </c>
-      <c r="M311" s="17">
-        <v>0.47961714527022059</v>
+      <c r="M311" s="14">
+        <v>9.3977676606068399E-5</v>
       </c>
       <c r="N311" s="13" t="s">
         <v>433</v>
@@ -18319,8 +18316,8 @@
       <c r="L312" s="15" t="s">
         <v>735</v>
       </c>
-      <c r="M312" s="18">
-        <v>0.64621442599019285</v>
+      <c r="M312" s="16">
+        <v>1.281767544386E-4</v>
       </c>
       <c r="N312" s="15" t="s">
         <v>433</v>
@@ -18357,8 +18354,8 @@
       <c r="L313" s="13" t="s">
         <v>736</v>
       </c>
-      <c r="M313" s="17">
-        <v>0.74759204996441109</v>
+      <c r="M313" s="14">
+        <v>1.5051836823560001E-4</v>
       </c>
       <c r="N313" s="13" t="s">
         <v>433</v>
@@ -18395,8 +18392,8 @@
       <c r="L314" s="15" t="s">
         <v>737</v>
       </c>
-      <c r="M314" s="18">
-        <v>0.91635861996393042</v>
+      <c r="M314" s="16">
+        <v>1.896103592531E-4</v>
       </c>
       <c r="N314" s="15" t="s">
         <v>433</v>
@@ -18433,8 +18430,8 @@
       <c r="L315" s="13" t="s">
         <v>738</v>
       </c>
-      <c r="M315" s="17">
-        <v>0.96422763798798083</v>
+      <c r="M315" s="14">
+        <v>2.0795793996279999E-4</v>
       </c>
       <c r="N315" s="13" t="s">
         <v>433</v>
@@ -18471,8 +18468,8 @@
       <c r="L316" s="15" t="s">
         <v>739</v>
       </c>
-      <c r="M316" s="18">
-        <v>0.97368639647780997</v>
+      <c r="M316" s="16">
+        <v>2.1176346931220001E-4</v>
       </c>
       <c r="N316" s="15" t="s">
         <v>433</v>
@@ -18509,8 +18506,8 @@
       <c r="L317" s="13" t="s">
         <v>740</v>
       </c>
-      <c r="M317" s="17">
-        <v>0.96483413268565676</v>
+      <c r="M317" s="14">
+        <v>2.0522513460409999E-4</v>
       </c>
       <c r="N317" s="13" t="s">
         <v>433</v>
@@ -18547,8 +18544,8 @@
       <c r="L318" s="15" t="s">
         <v>741</v>
       </c>
-      <c r="M318" s="18">
-        <v>0.95942808849346684</v>
+      <c r="M318" s="16">
+        <v>2.027086763503E-4</v>
       </c>
       <c r="N318" s="15" t="s">
         <v>433</v>
@@ -18585,8 +18582,8 @@
       <c r="L319" s="13" t="s">
         <v>742</v>
       </c>
-      <c r="M319" s="17">
-        <v>0.94108610968429141</v>
+      <c r="M319" s="14">
+        <v>1.9667556512899999E-4</v>
       </c>
       <c r="N319" s="13" t="s">
         <v>433</v>
@@ -18623,8 +18620,8 @@
       <c r="L320" s="15" t="s">
         <v>743</v>
       </c>
-      <c r="M320" s="18">
-        <v>0.91248020368901062</v>
+      <c r="M320" s="16">
+        <v>1.8373900091189999E-4</v>
       </c>
       <c r="N320" s="15" t="s">
         <v>433</v>
@@ -18661,8 +18658,8 @@
       <c r="L321" s="13" t="s">
         <v>744</v>
       </c>
-      <c r="M321" s="17">
-        <v>0.83484550434793103</v>
+      <c r="M321" s="14">
+        <v>1.6464854694929999E-4</v>
       </c>
       <c r="N321" s="13" t="s">
         <v>433</v>
@@ -18699,8 +18696,8 @@
       <c r="L322" s="15" t="s">
         <v>745</v>
       </c>
-      <c r="M322" s="18">
-        <v>0.88497491873284073</v>
+      <c r="M322" s="16">
+        <v>1.764943373607E-4</v>
       </c>
       <c r="N322" s="15" t="s">
         <v>433</v>
@@ -18737,8 +18734,8 @@
       <c r="L323" s="13" t="s">
         <v>746</v>
       </c>
-      <c r="M323" s="17">
-        <v>0.9373864613378784</v>
+      <c r="M323" s="14">
+        <v>1.9398690500419999E-4</v>
       </c>
       <c r="N323" s="13" t="s">
         <v>433</v>
@@ -18775,8 +18772,8 @@
       <c r="L324" s="15" t="s">
         <v>747</v>
       </c>
-      <c r="M324" s="18">
-        <v>0.9786176619908068</v>
+      <c r="M324" s="16">
+        <v>2.0865844958539999E-4</v>
       </c>
       <c r="N324" s="15" t="s">
         <v>433</v>
@@ -18813,8 +18810,8 @@
       <c r="L325" s="13" t="s">
         <v>748</v>
       </c>
-      <c r="M325" s="17">
-        <v>0.98769220532837521</v>
+      <c r="M325" s="14">
+        <v>2.1585191894560001E-4</v>
       </c>
       <c r="N325" s="13" t="s">
         <v>433</v>
@@ -18851,8 +18848,8 @@
       <c r="L326" s="15" t="s">
         <v>749</v>
       </c>
-      <c r="M326" s="18">
-        <v>0.98942964779187637</v>
+      <c r="M326" s="16">
+        <v>2.1609403155570001E-4</v>
       </c>
       <c r="N326" s="15" t="s">
         <v>433</v>
@@ -18889,8 +18886,8 @@
       <c r="L327" s="13" t="s">
         <v>750</v>
       </c>
-      <c r="M327" s="17">
-        <v>0.98775605376552345</v>
+      <c r="M327" s="14">
+        <v>2.142526209305E-4</v>
       </c>
       <c r="N327" s="13" t="s">
         <v>433</v>
@@ -18927,8 +18924,8 @@
       <c r="L328" s="15" t="s">
         <v>751</v>
       </c>
-      <c r="M328" s="18">
-        <v>0.99112927383637162</v>
+      <c r="M328" s="16">
+        <v>2.1264179640670001E-4</v>
       </c>
       <c r="N328" s="15" t="s">
         <v>433</v>
@@ -18965,8 +18962,8 @@
       <c r="L329" s="13" t="s">
         <v>752</v>
       </c>
-      <c r="M329" s="17">
-        <v>0.98114301610415555</v>
+      <c r="M329" s="14">
+        <v>2.0988537422680001E-4</v>
       </c>
       <c r="N329" s="13" t="s">
         <v>433</v>
@@ -19003,8 +19000,8 @@
       <c r="L330" s="15" t="s">
         <v>753</v>
       </c>
-      <c r="M330" s="18">
-        <v>0.98447869119300879</v>
+      <c r="M330" s="16">
+        <v>2.1169978268650001E-4</v>
       </c>
       <c r="N330" s="15" t="s">
         <v>433</v>
@@ -19041,8 +19038,8 @@
       <c r="L331" s="13" t="s">
         <v>754</v>
       </c>
-      <c r="M331" s="17">
-        <v>0.99328205181716001</v>
+      <c r="M331" s="14">
+        <v>2.158060136574E-4</v>
       </c>
       <c r="N331" s="13" t="s">
         <v>433</v>
@@ -19079,8 +19076,8 @@
       <c r="L332" s="15" t="s">
         <v>755</v>
       </c>
-      <c r="M332" s="18">
-        <v>0.99269168319301682</v>
+      <c r="M332" s="16">
+        <v>2.1325799987830001E-4</v>
       </c>
       <c r="N332" s="15" t="s">
         <v>433</v>
@@ -19117,8 +19114,8 @@
       <c r="L333" s="13" t="s">
         <v>756</v>
       </c>
-      <c r="M333" s="17">
-        <v>0.9809451399478708</v>
+      <c r="M333" s="14">
+        <v>2.0964903545569999E-4</v>
       </c>
       <c r="N333" s="13" t="s">
         <v>433</v>
@@ -19155,8 +19152,8 @@
       <c r="L334" s="15" t="s">
         <v>757</v>
       </c>
-      <c r="M334" s="18">
-        <v>0.98168554636322802</v>
+      <c r="M334" s="16">
+        <v>2.1186721900659999E-4</v>
       </c>
       <c r="N334" s="15" t="s">
         <v>433</v>
@@ -19193,8 +19190,8 @@
       <c r="L335" s="13" t="s">
         <v>758</v>
       </c>
-      <c r="M335" s="17">
-        <v>0.97243575557106166</v>
+      <c r="M335" s="14">
+        <v>2.0807702495869999E-4</v>
       </c>
       <c r="N335" s="13" t="s">
         <v>433</v>
@@ -19231,8 +19228,8 @@
       <c r="L336" s="15" t="s">
         <v>759</v>
       </c>
-      <c r="M336" s="18">
-        <v>0.91305318307694638</v>
+      <c r="M336" s="16">
+        <v>1.882883576944E-4</v>
       </c>
       <c r="N336" s="15" t="s">
         <v>433</v>
@@ -19269,8 +19266,8 @@
       <c r="L337" s="13" t="s">
         <v>760</v>
       </c>
-      <c r="M337" s="17">
-        <v>0.9134284394316774</v>
+      <c r="M337" s="14">
+        <v>1.8864161010740001E-4</v>
       </c>
       <c r="N337" s="13" t="s">
         <v>433</v>
@@ -19307,8 +19304,8 @@
       <c r="L338" s="15" t="s">
         <v>761</v>
       </c>
-      <c r="M338" s="18">
-        <v>0.84300080305894709</v>
+      <c r="M338" s="16">
+        <v>1.7039966493449999E-4</v>
       </c>
       <c r="N338" s="15" t="s">
         <v>433</v>
@@ -19345,8 +19342,8 @@
       <c r="L339" s="13" t="s">
         <v>762</v>
       </c>
-      <c r="M339" s="17">
-        <v>0.77969883144998109</v>
+      <c r="M339" s="14">
+        <v>1.5482073971450001E-4</v>
       </c>
       <c r="N339" s="13" t="s">
         <v>433</v>
@@ -19383,8 +19380,8 @@
       <c r="L340" s="15" t="s">
         <v>763</v>
       </c>
-      <c r="M340" s="18">
-        <v>0.64992096626430162</v>
+      <c r="M340" s="16">
+        <v>1.2803618655579999E-4</v>
       </c>
       <c r="N340" s="15" t="s">
         <v>433</v>
@@ -19421,8 +19418,8 @@
       <c r="L341" s="13" t="s">
         <v>764</v>
       </c>
-      <c r="M341" s="17">
-        <v>0.52939227895371399</v>
+      <c r="M341" s="14">
+        <v>1.036386387157E-4</v>
       </c>
       <c r="N341" s="13" t="s">
         <v>433</v>
@@ -19459,8 +19456,8 @@
       <c r="L342" s="15" t="s">
         <v>765</v>
       </c>
-      <c r="M342" s="18">
-        <v>0.48213899825575363</v>
+      <c r="M342" s="16">
+        <v>9.4205604385176194E-5</v>
       </c>
       <c r="N342" s="15" t="s">
         <v>433</v>
@@ -19497,8 +19494,8 @@
       <c r="L343" s="13" t="s">
         <v>766</v>
       </c>
-      <c r="M343" s="17">
-        <v>0.4709426425419907</v>
+      <c r="M343" s="14">
+        <v>9.2196554262753122E-5</v>
       </c>
       <c r="N343" s="13" t="s">
         <v>433</v>
@@ -19535,8 +19532,8 @@
       <c r="L344" s="15" t="s">
         <v>767</v>
       </c>
-      <c r="M344" s="18">
-        <v>0.39857147954521449</v>
+      <c r="M344" s="16">
+        <v>7.8245467512110941E-5</v>
       </c>
       <c r="N344" s="15" t="s">
         <v>433</v>
@@ -19573,8 +19570,8 @@
       <c r="L345" s="13" t="s">
         <v>768</v>
       </c>
-      <c r="M345" s="17">
-        <v>0.29490353313869322</v>
+      <c r="M345" s="14">
+        <v>5.7806115024962017E-5</v>
       </c>
       <c r="N345" s="13" t="s">
         <v>433</v>
@@ -19611,8 +19608,8 @@
       <c r="L346" s="15" t="s">
         <v>769</v>
       </c>
-      <c r="M346" s="18">
-        <v>0.2399004130073672</v>
+      <c r="M346" s="16">
+        <v>4.7260730724270607E-5</v>
       </c>
       <c r="N346" s="15" t="s">
         <v>433</v>
@@ -19649,8 +19646,8 @@
       <c r="L347" s="13" t="s">
         <v>770</v>
       </c>
-      <c r="M347" s="17">
-        <v>0.2212919562141554</v>
+      <c r="M347" s="14">
+        <v>4.3644572956603424E-5</v>
       </c>
       <c r="N347" s="13" t="s">
         <v>433</v>
@@ -19687,8 +19684,8 @@
       <c r="L348" s="15" t="s">
         <v>771</v>
       </c>
-      <c r="M348" s="18">
-        <v>0.1938367557472557</v>
+      <c r="M348" s="16">
+        <v>3.8308034829617997E-5</v>
       </c>
       <c r="N348" s="15" t="s">
         <v>433</v>
@@ -19725,8 +19722,8 @@
       <c r="L349" s="13" t="s">
         <v>772</v>
       </c>
-      <c r="M349" s="17">
-        <v>0.1101616979327714</v>
+      <c r="M349" s="14">
+        <v>2.16343038947126E-5</v>
       </c>
       <c r="N349" s="13" t="s">
         <v>433</v>
@@ -19763,8 +19760,8 @@
       <c r="L350" s="15" t="s">
         <v>773</v>
       </c>
-      <c r="M350" s="18">
-        <v>5.6867086642132497E-2</v>
+      <c r="M350" s="16">
+        <v>1.1023467434386046E-5</v>
       </c>
       <c r="N350" s="15" t="s">
         <v>433</v>
@@ -19801,8 +19798,8 @@
       <c r="L351" s="13" t="s">
         <v>774</v>
       </c>
-      <c r="M351" s="17">
-        <v>3.4582967212572799E-2</v>
+      <c r="M351" s="14">
+        <v>6.5351416129323174E-6</v>
       </c>
       <c r="N351" s="13" t="s">
         <v>433</v>
@@ -19839,8 +19836,8 @@
       <c r="L352" s="15" t="s">
         <v>775</v>
       </c>
-      <c r="M352" s="18">
-        <v>3.1945711173136999E-2</v>
+      <c r="M352" s="16">
+        <v>5.9551449364997117E-6</v>
       </c>
       <c r="N352" s="15" t="s">
         <v>433</v>
@@ -19877,8 +19874,8 @@
       <c r="L353" s="13" t="s">
         <v>776</v>
       </c>
-      <c r="M353" s="17">
-        <v>2.5763129769123001E-2</v>
+      <c r="M353" s="14">
+        <v>4.8430968458205468E-6</v>
       </c>
       <c r="N353" s="13" t="s">
         <v>433</v>
@@ -19915,8 +19912,8 @@
       <c r="L354" s="15" t="s">
         <v>777</v>
       </c>
-      <c r="M354" s="18">
-        <v>2.1423078662630601E-2</v>
+      <c r="M354" s="16">
+        <v>3.9669269795061638E-6</v>
       </c>
       <c r="N354" s="15" t="s">
         <v>433</v>
@@ -19953,8 +19950,8 @@
       <c r="L355" s="13" t="s">
         <v>778</v>
       </c>
-      <c r="M355" s="17">
-        <v>2.1946833245809101E-2</v>
+      <c r="M355" s="14">
+        <v>4.0662161642276976E-6</v>
       </c>
       <c r="N355" s="13" t="s">
         <v>433</v>
@@ -19991,8 +19988,8 @@
       <c r="L356" s="15" t="s">
         <v>779</v>
       </c>
-      <c r="M356" s="18">
-        <v>2.8294097205451701E-2</v>
+      <c r="M356" s="16">
+        <v>5.4030100110929786E-6</v>
       </c>
       <c r="N356" s="15" t="s">
         <v>433</v>
@@ -20029,8 +20026,8 @@
       <c r="L357" s="13" t="s">
         <v>780</v>
       </c>
-      <c r="M357" s="17">
-        <v>3.8019476249953603E-2</v>
+      <c r="M357" s="14">
+        <v>7.2537277988370921E-6</v>
       </c>
       <c r="N357" s="13" t="s">
         <v>433</v>
@@ -20067,8 +20064,8 @@
       <c r="L358" s="15" t="s">
         <v>781</v>
       </c>
-      <c r="M358" s="18">
-        <v>6.0789041788112001E-2</v>
+      <c r="M358" s="16">
+        <v>1.1869246521193647E-5</v>
       </c>
       <c r="N358" s="15" t="s">
         <v>433</v>
@@ -20105,8 +20102,8 @@
       <c r="L359" s="13" t="s">
         <v>782</v>
       </c>
-      <c r="M359" s="17">
-        <v>8.8584436220248294E-2</v>
+      <c r="M359" s="14">
+        <v>1.7166496966635407E-5</v>
       </c>
       <c r="N359" s="13" t="s">
         <v>433</v>
@@ -20143,8 +20140,8 @@
       <c r="L360" s="15" t="s">
         <v>783</v>
       </c>
-      <c r="M360" s="18">
-        <v>0.133091560830539</v>
+      <c r="M360" s="16">
+        <v>2.6169094878340745E-5</v>
       </c>
       <c r="N360" s="15" t="s">
         <v>433</v>
@@ -20181,8 +20178,8 @@
       <c r="L361" s="13" t="s">
         <v>784</v>
       </c>
-      <c r="M361" s="17">
-        <v>0.1774671524302876</v>
+      <c r="M361" s="14">
+        <v>3.455376161056714E-5</v>
       </c>
       <c r="N361" s="13" t="s">
         <v>433</v>
@@ -20219,8 +20216,8 @@
       <c r="L362" s="15" t="s">
         <v>785</v>
       </c>
-      <c r="M362" s="18">
-        <v>0.22464316656650549</v>
+      <c r="M362" s="16">
+        <v>4.4393076724836072E-5</v>
       </c>
       <c r="N362" s="15" t="s">
         <v>433</v>
@@ -20257,8 +20254,8 @@
       <c r="L363" s="13" t="s">
         <v>786</v>
       </c>
-      <c r="M363" s="17">
-        <v>0.29470082600162978</v>
+      <c r="M363" s="14">
+        <v>5.7879646146962927E-5</v>
       </c>
       <c r="N363" s="13" t="s">
         <v>433</v>
@@ -20295,8 +20292,8 @@
       <c r="L364" s="15" t="s">
         <v>787</v>
       </c>
-      <c r="M364" s="18">
-        <v>0.30818165572563272</v>
+      <c r="M364" s="16">
+        <v>6.0357694969050818E-5</v>
       </c>
       <c r="N364" s="15" t="s">
         <v>433</v>
@@ -20333,8 +20330,8 @@
       <c r="L365" s="13" t="s">
         <v>788</v>
       </c>
-      <c r="M365" s="17">
-        <v>0.29799829769092268</v>
+      <c r="M365" s="14">
+        <v>5.8678206043151368E-5</v>
       </c>
       <c r="N365" s="13" t="s">
         <v>433</v>
@@ -20371,8 +20368,8 @@
       <c r="L366" s="15" t="s">
         <v>789</v>
       </c>
-      <c r="M366" s="18">
-        <v>0.28001867208520259</v>
+      <c r="M366" s="16">
+        <v>5.5105586528160209E-5</v>
       </c>
       <c r="N366" s="15" t="s">
         <v>433</v>
@@ -20409,8 +20406,8 @@
       <c r="L367" s="13" t="s">
         <v>790</v>
       </c>
-      <c r="M367" s="17">
-        <v>0.25179516051750672</v>
+      <c r="M367" s="14">
+        <v>4.9522175651136307E-5</v>
       </c>
       <c r="N367" s="13" t="s">
         <v>433</v>
@@ -20447,8 +20444,8 @@
       <c r="L368" s="15" t="s">
         <v>791</v>
       </c>
-      <c r="M368" s="18">
-        <v>0.28800089074565238</v>
+      <c r="M368" s="16">
+        <v>5.6490623807654291E-5</v>
       </c>
       <c r="N368" s="15" t="s">
         <v>433</v>
@@ -20485,8 +20482,8 @@
       <c r="L369" s="13" t="s">
         <v>792</v>
       </c>
-      <c r="M369" s="17">
-        <v>0.28313529709556551</v>
+      <c r="M369" s="14">
+        <v>5.5720623728500105E-5</v>
       </c>
       <c r="N369" s="13" t="s">
         <v>433</v>
@@ -20523,8 +20520,8 @@
       <c r="L370" s="15" t="s">
         <v>793</v>
       </c>
-      <c r="M370" s="18">
-        <v>0.26569197428271629</v>
+      <c r="M370" s="16">
+        <v>5.2559841808784683E-5</v>
       </c>
       <c r="N370" s="15" t="s">
         <v>433</v>
@@ -20561,8 +20558,8 @@
       <c r="L371" s="13" t="s">
         <v>794</v>
       </c>
-      <c r="M371" s="17">
-        <v>0.26454048680498682</v>
+      <c r="M371" s="14">
+        <v>5.2254894238142131E-5</v>
       </c>
       <c r="N371" s="13" t="s">
         <v>433</v>
@@ -20599,8 +20596,8 @@
       <c r="L372" s="15" t="s">
         <v>795</v>
       </c>
-      <c r="M372" s="18">
-        <v>0.24770470056525329</v>
+      <c r="M372" s="16">
+        <v>4.8562044178818522E-5</v>
       </c>
       <c r="N372" s="15" t="s">
         <v>433</v>
@@ -20637,8 +20634,8 @@
       <c r="L373" s="13" t="s">
         <v>796</v>
       </c>
-      <c r="M373" s="17">
-        <v>0.17530977801825459</v>
+      <c r="M373" s="14">
+        <v>3.4319182846833175E-5</v>
       </c>
       <c r="N373" s="13" t="s">
         <v>433</v>
@@ -20675,8 +20672,8 @@
       <c r="L374" s="15" t="s">
         <v>797</v>
       </c>
-      <c r="M374" s="18">
-        <v>0.1705274451596035</v>
+      <c r="M374" s="16">
+        <v>3.3347969154676885E-5</v>
       </c>
       <c r="N374" s="15" t="s">
         <v>433</v>
@@ -20713,8 +20710,8 @@
       <c r="L375" s="13" t="s">
         <v>798</v>
       </c>
-      <c r="M375" s="17">
-        <v>0.12716752699120651</v>
+      <c r="M375" s="14">
+        <v>2.470111955668213E-5</v>
       </c>
       <c r="N375" s="13" t="s">
         <v>433</v>
@@ -20751,8 +20748,8 @@
       <c r="L376" s="15" t="s">
         <v>799</v>
       </c>
-      <c r="M376" s="18">
-        <v>8.7968152625283902E-2</v>
+      <c r="M376" s="16">
+        <v>1.7040293987764687E-5</v>
       </c>
       <c r="N376" s="15" t="s">
         <v>433</v>
@@ -20789,8 +20786,8 @@
       <c r="L377" s="13" t="s">
         <v>800</v>
       </c>
-      <c r="M377" s="17">
-        <v>8.6061108572737896E-2</v>
+      <c r="M377" s="14">
+        <v>1.6622515726208363E-5</v>
       </c>
       <c r="N377" s="13" t="s">
         <v>433</v>
@@ -20827,8 +20824,8 @@
       <c r="L378" s="15" t="s">
         <v>801</v>
       </c>
-      <c r="M378" s="18">
-        <v>0.10853107921955731</v>
+      <c r="M378" s="16">
+        <v>2.0864178680818556E-5</v>
       </c>
       <c r="N378" s="15" t="s">
         <v>433</v>
@@ -20865,8 +20862,8 @@
       <c r="L379" s="13" t="s">
         <v>802</v>
       </c>
-      <c r="M379" s="17">
-        <v>0.15139225854517449</v>
+      <c r="M379" s="14">
+        <v>2.9445456258034599E-5</v>
       </c>
       <c r="N379" s="13" t="s">
         <v>433</v>
@@ -20903,8 +20900,8 @@
       <c r="L380" s="15" t="s">
         <v>803</v>
       </c>
-      <c r="M380" s="18">
-        <v>0.18768626686037931</v>
+      <c r="M380" s="16">
+        <v>3.6344017929912908E-5</v>
       </c>
       <c r="N380" s="15" t="s">
         <v>433</v>
@@ -20941,8 +20938,8 @@
       <c r="L381" s="13" t="s">
         <v>804</v>
       </c>
-      <c r="M381" s="17">
-        <v>0.25872772240803033</v>
+      <c r="M381" s="14">
+        <v>5.0602729697629612E-5</v>
       </c>
       <c r="N381" s="13" t="s">
         <v>433</v>
@@ -20979,8 +20976,8 @@
       <c r="L382" s="15" t="s">
         <v>805</v>
       </c>
-      <c r="M382" s="18">
-        <v>0.40241891881732672</v>
+      <c r="M382" s="16">
+        <v>7.8744892110771219E-5</v>
       </c>
       <c r="N382" s="15" t="s">
         <v>433</v>
@@ -21017,8 +21014,8 @@
       <c r="L383" s="13" t="s">
         <v>806</v>
       </c>
-      <c r="M383" s="17">
-        <v>0.54289546412711631</v>
+      <c r="M383" s="14">
+        <v>1.0683808278909999E-4</v>
       </c>
       <c r="N383" s="13" t="s">
         <v>433</v>
@@ -21055,8 +21052,8 @@
       <c r="L384" s="15" t="s">
         <v>807</v>
       </c>
-      <c r="M384" s="18">
-        <v>0.69140033469813922</v>
+      <c r="M384" s="16">
+        <v>1.3527550366060001E-4</v>
       </c>
       <c r="N384" s="15" t="s">
         <v>433</v>
@@ -21093,8 +21090,8 @@
       <c r="L385" s="13" t="s">
         <v>808</v>
       </c>
-      <c r="M385" s="17">
-        <v>0.887189797649517</v>
+      <c r="M385" s="14">
+        <v>1.791238859967E-4</v>
       </c>
       <c r="N385" s="13" t="s">
         <v>433</v>
@@ -21131,8 +21128,8 @@
       <c r="L386" s="15" t="s">
         <v>809</v>
       </c>
-      <c r="M386" s="18">
-        <v>0.98312763523512359</v>
+      <c r="M386" s="16">
+        <v>2.104407911139E-4</v>
       </c>
       <c r="N386" s="15" t="s">
         <v>433</v>
@@ -21169,8 +21166,8 @@
       <c r="L387" s="13" t="s">
         <v>810</v>
       </c>
-      <c r="M387" s="17">
-        <v>169.10309860617267</v>
+      <c r="M387" s="14">
+        <v>3.6662071087535136E-2</v>
       </c>
       <c r="N387" s="13" t="s">
         <v>433</v>
@@ -21207,8 +21204,8 @@
       <c r="L388" s="15" t="s">
         <v>811</v>
       </c>
-      <c r="M388" s="18">
-        <v>23.985187432088011</v>
+      <c r="M388" s="16">
+        <v>5.330109965263727E-3</v>
       </c>
       <c r="N388" s="15" t="s">
         <v>433</v>
@@ -21245,8 +21242,8 @@
       <c r="L389" s="13" t="s">
         <v>812</v>
       </c>
-      <c r="M389" s="17">
-        <v>23.958707950812247</v>
+      <c r="M389" s="14">
+        <v>5.3335867092306685E-3</v>
       </c>
       <c r="N389" s="13" t="s">
         <v>433</v>
@@ -21283,8 +21280,8 @@
       <c r="L390" s="15" t="s">
         <v>813</v>
       </c>
-      <c r="M390" s="18">
-        <v>24.447082907321526</v>
+      <c r="M390" s="16">
+        <v>5.5226868815515763E-3</v>
       </c>
       <c r="N390" s="15" t="s">
         <v>433</v>
@@ -21321,8 +21318,8 @@
       <c r="L391" s="13" t="s">
         <v>814</v>
       </c>
-      <c r="M391" s="17">
-        <v>145.4691779319914</v>
+      <c r="M391" s="14">
+        <v>3.1515657407784566E-2</v>
       </c>
       <c r="N391" s="13" t="s">
         <v>433</v>
@@ -21359,8 +21356,8 @@
       <c r="L392" s="15" t="s">
         <v>815</v>
       </c>
-      <c r="M392" s="18">
-        <v>47.742216627882641</v>
+      <c r="M392" s="16">
+        <v>1.0408000848768471E-2</v>
       </c>
       <c r="N392" s="15" t="s">
         <v>433</v>
@@ -21397,8 +21394,8 @@
       <c r="L393" s="13" t="s">
         <v>816</v>
       </c>
-      <c r="M393" s="17">
-        <v>23.688633450985318</v>
+      <c r="M393" s="14">
+        <v>5.1164171189268335E-3</v>
       </c>
       <c r="N393" s="13" t="s">
         <v>433</v>
@@ -21435,8 +21432,8 @@
       <c r="L394" s="15" t="s">
         <v>817</v>
       </c>
-      <c r="M394" s="18">
-        <v>120.06411007239235</v>
+      <c r="M394" s="16">
+        <v>2.5960862236259676E-2</v>
       </c>
       <c r="N394" s="15" t="s">
         <v>433</v>
@@ -21455,7 +21452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABFF7CF-3A1E-4385-9596-B48EC8B7B485}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0742C4B-7921-4C20-9BF9-6242CCF9C161}">
   <dimension ref="B2:O771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
